--- a/output/fit_clients/fit_round_38.xlsx
+++ b/output/fit_clients/fit_round_38.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>9062086752.81735</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.004481062760646111</v>
       </c>
       <c r="G2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
         <v>9</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.5210890978413596</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.419291366675774</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.9159209179178691</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-3.419291366675774</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>4488311072.671724</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.004976703522348871</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.5210890978413596</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>3.071013442075963</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.8813682074069273</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-3.071013442075963</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>6495861874.738401</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.003898772297385345</v>
       </c>
       <c r="G4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.1632359765321628</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>4.049166596637323</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.4391581398557034</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-4.049166596637323</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>3552519195.261243</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.003443786086141122</v>
       </c>
       <c r="G5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>10</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.5210890978413596</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3.067924808511671</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.8076720554227628</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-3.067924808511671</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>5757551694.580411</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.002666986392005824</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>14</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.5210890978413596</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874636</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.604794176704175</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.7995130862348139</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-2.604794176704175</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>6964283997.28634</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.0009813766881218791</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>5</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.5210890978413596</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="L7" t="n">
-        <v>4.060981400592575</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.9455647329080977</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-4.060981400592575</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>4843241935.734832</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.002566922616459651</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>5</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.5210890978413596</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="L8" t="n">
-        <v>4.000585289815132</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.9402533380895941</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-4.000585289815132</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>5569373906.084652</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.005207766270897699</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>4</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.5210890978413596</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="L9" t="n">
-        <v>4.421402705458186</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.9111868823763928</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-4.421402705458186</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>3817175160.292464</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.005550469158757402</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>9</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.5210890978413596</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="L10" t="n">
-        <v>3.067576318097649</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.9104366005102028</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-3.067576318097649</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>3138216280.569897</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.001264626786503767</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>11</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.5210890978413596</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462226</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.763674222827517</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.7333994174560664</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-2.763674222827517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>6268933994.87767</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.001836607978159382</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>5</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.5210890978413596</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>4.184263708162774</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.9900671963890245</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-4.184263708162774</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>4751254927.767013</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.00410487225124345</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>9</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.5210890978413596</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="L13" t="n">
-        <v>3.065027855073407</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.005580382849444</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-3.065027855073407</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>7246333751.755263</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.002244001246362281</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>7</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.5210890978413596</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="L14" t="n">
-        <v>3.477620171843772</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.8725425436760633</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-3.477620171843772</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>7473626854.496371</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.004875429809831197</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>10</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.5210890978413596</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.207769765749958</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.920136316602608</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-3.207769765749958</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>5333367192.702988</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.004785767424386128</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>7</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.5210890978413596</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>3.555756073319313</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.8907203424103968</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-3.555756073319313</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>5657436362.979774</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.002560158102262995</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>5</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.5210890978413596</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="L17" t="n">
-        <v>4.011227395655114</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.9413180146235449</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-4.011227395655114</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>6501080145.69777</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.001319476575294984</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.5210890978413596</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>6.315675722706182</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.9710772675476461</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-6.315675722706182</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>3043231851.567965</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.002155575785440862</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>10</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.5210890978413596</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.95327707242063</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.8616734115018674</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-2.95327707242063</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>5889235995.288823</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.001123602816737869</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>6</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.5210890978413596</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162808</v>
-      </c>
-      <c r="L20" t="n">
-        <v>3.688626550998368</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.8095868074703333</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-3.688626550998368</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>5868043632.178872</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.004784488272366006</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
-        <v>9</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.5210890978413596</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="L21" t="n">
-        <v>3.262502567922645</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.832269663419151</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-3.262502567922645</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>4644320138.757431</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.004411993091264352</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
         <v>3</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.5210890978413596</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>5.333201757131242</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.8743152407706679</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-5.333201757131242</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>8002995201.572067</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.001836651149998052</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>12</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.5210890978413596</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2.641658380541669</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.8147435460815021</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-2.641658380541669</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>7382994246.457665</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.003605134076428414</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>7</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.5210890978413596</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="L24" t="n">
-        <v>3.593714264698353</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.9693405302654891</v>
-      </c>
-      <c r="N24" t="n">
-        <v>-3.593714264698353</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>7376651289.235192</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.002699535652922994</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>7</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.5210890978413596</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="L25" t="n">
-        <v>3.547091884533267</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.9063268927436275</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-3.547091884533267</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>5476447505.13751</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.001146494073827299</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>11</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.5210890978413596</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2.650186966230716</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.7693912248732494</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-2.650186966230716</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>7243346104.77232</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.003986646712944449</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>9</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.5210890978413596</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="L27" t="n">
-        <v>3.120725355229774</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.8971374616826147</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-3.120725355229774</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>6</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>7463257531.957602</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.005336086053968146</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>7</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.5210890978413596</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="L28" t="n">
-        <v>3.513557518400192</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.8907203424103968</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-3.513557518400192</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>6747285269.897575</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.001558505756749137</v>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>6</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.5210890978413596</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="L29" t="n">
-        <v>3.856663643644694</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.9715456446101756</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-3.856663643644694</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>8065737754.42186</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.003981102401001161</v>
       </c>
       <c r="G30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>8</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.5210890978413596</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="L30" t="n">
-        <v>3.143544307056474</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.8700865557972224</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-3.143544307056474</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>6125608042.528395</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.002976025761018204</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
         <v>8</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.5210890978413596</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>3.346691805507978</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.9493606716862515</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-3.346691805507978</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>3625715633.171905</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.0009861032909039935</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>7</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.5210890978413596</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590732</v>
-      </c>
-      <c r="L32" t="n">
-        <v>3.773839834675595</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.9216692164963217</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-3.773839834675595</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>5511060559.361095</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.002689738985059397</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>7</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.5210890978413596</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="L33" t="n">
-        <v>3.580835423744337</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.8180344165620854</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-3.580835423744337</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>8005767155.359797</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.004625209250029069</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>3</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.5210890978413596</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="L34" t="n">
-        <v>5.376504625487424</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.8113286031787215</v>
-      </c>
-      <c r="N34" t="n">
-        <v>-5.376504625487424</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>5000569137.840348</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.001855642612279777</v>
       </c>
       <c r="G35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>6</v>
-      </c>
-      <c r="J35" t="n">
-        <v>1</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="L35" t="n">
-        <v>3.745358417957747</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1.34122892715182</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-3.745358417957747</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>6791206161.461892</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.003924807395971096</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>8</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.2955424160748291</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="L36" t="n">
-        <v>3.270004117313629</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0.6772608550368132</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-3.270004117313629</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37">
@@ -2120,40 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>5158287416.385241</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.004413897170082772</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
         <v>10</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.4606400491275583</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.3566572739053289</v>
-      </c>
-      <c r="L37" t="n">
-        <v>3.120518872362352</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0.8940735604893028</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-3.120518872362352</v>
       </c>
     </row>
     <row r="38">
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>6</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>3558209714.881762</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.004790591426287917</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>8</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.5210890978413596</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>3.191577693666631</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.8826587835098765</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-3.191577693666631</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>5023460810.323817</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.002778622305564477</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
-        <v>7</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.5210890978413596</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3778042419542555</v>
-      </c>
-      <c r="L39" t="n">
-        <v>3.681250696670777</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.8397851357766735</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-3.681250696670777</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>5199975789.00698</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.003815418966523786</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>7</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.5210890978413596</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930466</v>
-      </c>
-      <c r="L40" t="n">
-        <v>3.677063528409569</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.9714049584739387</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-3.677063528409569</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>6653790720.51803</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.001235646945648179</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>6</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.5210890978413596</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>3.772424516443952</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.9141797617464951</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-3.772424516443952</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>6495968455.279129</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.003896572689527934</v>
       </c>
       <c r="G42" t="b">
         <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>6</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.3532364097151249</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>3.649220885914488</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.7753795318355264</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-3.649220885914488</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>4726467967.288742</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.003248473199175453</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>7</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.9512480138958301</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>3.606400580071552</v>
-      </c>
-      <c r="M43" t="n">
-        <v>1.286561347470287</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-3.606400580071552</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>6818906164.883245</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.001650408716810333</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
         <v>10</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.1720781227335967</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900504</v>
-      </c>
-      <c r="L44" t="n">
-        <v>3.067325204247073</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.3012684764694771</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-3.067325204247073</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>5590458069.926175</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.001109349399316002</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>8</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.5210890978413596</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="L45" t="n">
-        <v>3.556209323807392</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.9269396543220242</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-3.556209323807392</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>11372069477.03732</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.0044960415149165</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>8</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.5210890978413596</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="L46" t="n">
-        <v>3.29852171690272</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.8042829396044419</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-3.29852171690272</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>6</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>6514801264.667577</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.002653983117994227</v>
       </c>
       <c r="G47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
         <v>6</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.5210890978413596</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="L47" t="n">
-        <v>3.668594246456509</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.900935879179328</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-3.668594246456509</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>5266342842.226315</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.003054531235341954</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>4</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.8818866375187511</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>4.601380888061228</v>
-      </c>
-      <c r="M48" t="n">
-        <v>1.268949435741245</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-4.601380888061228</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>5895049133.764797</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.004567371130095146</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>8</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.5210890978413596</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="L49" t="n">
-        <v>3.405516849901883</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.8654695575895913</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-3.405516849901883</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>6662434274.410016</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.002554529996110628</v>
       </c>
       <c r="G50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>3</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.5210890978413596</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>5.302291329392087</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.020234135763816</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-5.302291329392087</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51">
@@ -2764,40 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>4369898414.507799</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.005483722941036849</v>
       </c>
       <c r="G51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>9</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.5210890978413596</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="L51" t="n">
-        <v>3.164443567698269</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.9267921970654407</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-3.164443567698269</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>6</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>7150479395.025399</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.001444164594432301</v>
       </c>
       <c r="G52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>8</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.5210890978413596</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="L52" t="n">
-        <v>3.206026258618139</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.8239680119991077</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-3.206026258618139</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>5656525149.391794</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.002738409459297914</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
-        <v>8</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.5210890978413596</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.1983575699208209</v>
-      </c>
-      <c r="L53" t="n">
-        <v>3.288448777196386</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0.8939346602347454</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-3.288448777196386</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>6500675861.521707</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.004599243323726942</v>
       </c>
       <c r="G54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
-        <v>11</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.8480259209585339</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>2.738566322601905</v>
-      </c>
-      <c r="M54" t="n">
-        <v>1.094142420784934</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-2.738566322601905</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>6</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>7556575776.13204</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.003939794890089438</v>
       </c>
       <c r="G55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>9</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.8636275311345645</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269525</v>
-      </c>
-      <c r="L55" t="n">
-        <v>3.08775997905959</v>
-      </c>
-      <c r="M55" t="n">
-        <v>1.194376201339326</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-3.08775997905959</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>4048790211.672628</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.002656356226728508</v>
       </c>
       <c r="G56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
-        <v>6</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.5210890978413596</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="L56" t="n">
-        <v>3.787146328838135</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0.910886843789236</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-3.787146328838135</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>8372576284.444219</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.00397391263558635</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
-        <v>6</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.5210890978413596</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="L57" t="n">
-        <v>3.708928545833693</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.8339640856498293</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-3.708928545833693</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>6443326772.34684</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.001999942211123399</v>
       </c>
       <c r="G58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
-        <v>12</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.5210890978413596</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="L58" t="n">
-        <v>2.558247320497174</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.7520951186108542</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-2.558247320497174</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>5925656410.328029</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.003552344640816397</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>9</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.5210890978413596</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>3.059000000287053</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0.8513078353373863</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-3.059000000287053</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>1</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>5141184392.745064</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.002935043533080166</v>
       </c>
       <c r="G60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>7</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.7961959076956168</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="L60" t="n">
-        <v>3.364828250433296</v>
-      </c>
-      <c r="M60" t="n">
-        <v>1.071108000805626</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-3.364828250433296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>6363148740.706999</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.004659631224942327</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>10</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.2938262095078139</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="L61" t="n">
-        <v>3.619030592830516</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.597479220553169</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-3.619030592830516</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62">
@@ -3270,40 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>5018013855.085196</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.004080357529369564</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>9</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.7534754079642333</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="L62" t="n">
-        <v>3.677947850943325</v>
-      </c>
-      <c r="M62" t="n">
-        <v>1.053612086476188</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-3.677947850943325</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63">
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>6243091322.396474</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.004878552407080356</v>
       </c>
       <c r="G63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
-        <v>8</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.5210890978413596</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="L63" t="n">
-        <v>3.235610148330878</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0.9039626986578024</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-3.235610148330878</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>3415662017.438454</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.004661336943975114</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>5</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.5210890978413596</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="L64" t="n">
-        <v>4.05145586725319</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.9010875676680241</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-4.05145586725319</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>5318271244.703626</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.004915031903694857</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>5</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.5210890978413596</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="L65" t="n">
-        <v>4.54258789837362</v>
-      </c>
-      <c r="M65" t="n">
-        <v>1.022908008547108</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-4.54258789837362</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>6</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>4538132903.076892</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.003750872283577951</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>8</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.5210890978413596</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="L66" t="n">
-        <v>3.3096962080458</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0.8792478225782381</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-3.3096962080458</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>6135549929.990668</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.004413462850367364</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>2</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.5210890978413596</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>6.451568464245627</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.9278239057246351</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-6.451568464245627</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>6</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>7386878757.995302</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.002059058739210503</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
         <v>8</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.5657531654650337</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.05006391068676648</v>
-      </c>
-      <c r="L68" t="n">
-        <v>3.140155117962332</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.7651881492877238</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-3.140155117962332</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>6</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>5075402386.300547</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.000780277283763442</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
         <v>6</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.5210890978413596</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>3.824311675171023</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0.9570032557073027</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-3.824311675171023</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>6</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>5615546977.852857</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.002668902470707401</v>
       </c>
       <c r="G70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>3</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.5210890978413596</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>6.046097810990657</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.9211754798211601</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-6.046097810990657</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71">
@@ -3684,40 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>5158799139.743493</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.003063994281058302</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>6</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.5210890978413596</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="L71" t="n">
-        <v>3.704542471005358</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.7920764424620781</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-3.704542471005358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>7107344319.931016</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.002347701636019709</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>7</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.4840044444003949</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="L72" t="n">
-        <v>3.48366195427874</v>
-      </c>
-      <c r="M72" t="n">
-        <v>0.9939963773747832</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-3.48366195427874</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>7429336531.456982</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.001108726713846947</v>
       </c>
       <c r="G73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>6</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>3.732816824370583</v>
-      </c>
-      <c r="M73" t="n">
-        <v>-0.3973597071195131</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-3.732816824370583</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>5883367994.421992</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.004468341717783493</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
         <v>8</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.5210890978413596</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="L74" t="n">
-        <v>3.209552346045724</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.8467498551847077</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-3.209552346045724</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>7349907758.826534</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.003829102034949864</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
-        <v>10</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.5210890978413596</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>3.030278059133382</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.8175330378891915</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-3.030278059133382</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>5748189578.752929</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.002369175028489364</v>
       </c>
       <c r="G76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>8</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.5210890978413596</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="L76" t="n">
-        <v>3.362624872617456</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.9116860285361453</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-3.362624872617456</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>5104071826.203644</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.00402383050739068</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>3</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.5210890978413596</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="L77" t="n">
-        <v>5.269015382913753</v>
-      </c>
-      <c r="M77" t="n">
-        <v>1.002406566312475</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-5.269015382913753</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>6</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>5707979556.644737</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.004777793811575717</v>
       </c>
       <c r="G78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
         <v>7</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.5210890978413596</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>3.52341543856341</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.9129337466144209</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-3.52341543856341</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>6335249731.173259</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.002486189468548605</v>
       </c>
       <c r="G79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>4</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.5210890978413596</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>4.476511166785119</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.9645852880508721</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-4.476511166785119</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>6</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>6173847275.134556</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.002861523348580929</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>9</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.2423638329402051</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="L80" t="n">
-        <v>3.393896422865653</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.5355325597998344</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-3.393896422865653</v>
+        <v>13</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>6</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>4853190032.813906</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.003666787630715077</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>3</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.5210890978413596</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="L81" t="n">
-        <v>5.155580038819639</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0.9862893522325826</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-5.155580038819639</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>1</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>6131540368.91733</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.004292359552986809</v>
       </c>
       <c r="G82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>4</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.5210890978413596</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>4.632465916357866</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0.9382660370435972</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-4.632465916357866</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>6</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>10338599020.78955</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.002243999359946178</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
-        <v>15</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.5210890978413596</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="L83" t="n">
-        <v>2.370105849844397</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.7244043977467173</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-2.370105849844397</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>6</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>6381938326.510144</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.005008760964037774</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
-        <v>9</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.5210890978413596</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="L84" t="n">
-        <v>3.069927674135396</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.9289511861630628</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-3.069927674135396</v>
+        <v>11</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>6</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>3709902963.18509</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.003133226851391811</v>
       </c>
       <c r="G85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>9</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.5210890978413596</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>3.037272992091014</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.8915376048285275</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-3.037272992091014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>9038618195.295189</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.001830955576945159</v>
       </c>
       <c r="G86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>11</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.2895073983001707</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.4469351312307497</v>
-      </c>
-      <c r="L86" t="n">
-        <v>3.082173767212044</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.5910794481667166</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-3.082173767212044</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>4952590971.693547</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.001311451797152433</v>
       </c>
       <c r="G87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>12</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.2917764211422352</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764211</v>
-      </c>
-      <c r="L87" t="n">
-        <v>2.69143738357175</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.5834422126404535</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-2.69143738357175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>6</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>8153743960.717429</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.00579568291786612</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
-        <v>10</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.5210890978413596</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="L88" t="n">
-        <v>2.880562641503401</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.7863069670209233</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-2.880562641503401</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>5550643625.104053</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.00464121355900485</v>
       </c>
       <c r="G89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>9</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.5210890978413596</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="L89" t="n">
-        <v>3.202198947308459</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.9015923051019651</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-3.202198947308459</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>6583811207.393835</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.002968554144267134</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
-        <v>9</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.5210890978413596</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>3.026119420807972</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.899367641672025</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-3.026119420807972</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>6</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>5040128182.916044</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.003163648010973528</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>3</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.7153580917205373</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="L91" t="n">
-        <v>5.096679616747855</v>
-      </c>
-      <c r="M91" t="n">
-        <v>1.002295122525159</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-5.096679616747855</v>
+        <v>11</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>5316068226.672538</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.003202783013138913</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>8</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.5210890978413596</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>3.347003498588637</v>
-      </c>
-      <c r="M92" t="n">
-        <v>1.008699681363806</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-3.347003498588637</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>7139053943.884291</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.001258199535052346</v>
       </c>
       <c r="G93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>7</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.5210890978413596</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="L93" t="n">
-        <v>3.504033229875573</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.9194931293405997</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-3.504033229875573</v>
+        <v>13</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>1</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>6122882435.574469</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.001059650622047036</v>
       </c>
       <c r="G94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>3</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.5210890978413596</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="L94" t="n">
-        <v>5.282154473192978</v>
-      </c>
-      <c r="M94" t="n">
-        <v>1.031948094708252</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-5.282154473192978</v>
+        <v>13</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>7018543321.796083</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.002963347446909395</v>
       </c>
       <c r="G95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>5</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.5210890978413596</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>4.026003954956695</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.9241360109831305</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-4.026003954956695</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>8135691026.057796</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.002680517534413952</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
-        <v>11</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.5210890978413596</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="L96" t="n">
-        <v>2.869386094950605</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0.8821941336618565</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-2.869386094950605</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>6610650408.600132</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.005074715585160196</v>
       </c>
       <c r="G97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>5</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.5210890978413596</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="L97" t="n">
-        <v>4.233123624684599</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.9066284403970644</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-4.233123624684599</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>6723327276.652674</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.003957707546183745</v>
       </c>
       <c r="G98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>6</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.5210890978413596</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>3.568129980682087</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.8634684231681217</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-3.568129980682087</v>
+        <v>14</v>
       </c>
     </row>
     <row r="99">
@@ -4972,40 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>3058653531.78086</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.005201424856546117</v>
       </c>
       <c r="G99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>9</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.5210890978413596</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="L99" t="n">
-        <v>3.145303601722518</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0.8756675126420777</v>
-      </c>
-      <c r="N99" t="n">
-        <v>-3.145303601722518</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>6</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>5646600788.63553</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.002893502808614756</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>8</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.5210890978413596</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>3.205206219877564</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.7917312664514946</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-3.205206219877564</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>7230349278.289206</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.001703072909887914</v>
       </c>
       <c r="G101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>9</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.5210890978413596</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480224</v>
-      </c>
-      <c r="L101" t="n">
-        <v>3.381361928480659</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0.8583382897808715</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-3.381361928480659</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_38.xlsx
+++ b/output/fit_clients/fit_round_38.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -480,22 +490,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>9062086752.81735</v>
+        <v>1935553987.510495</v>
       </c>
       <c r="F2" t="n">
-        <v>0.004481062760646111</v>
-      </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
+        <v>0.1133347208721824</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.04191972707672226</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>967776980.6047047</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +524,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>4488311072.671724</v>
+        <v>2534797331.887137</v>
       </c>
       <c r="F3" t="n">
-        <v>0.004976703522348871</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
+        <v>0.1744808861925735</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.04955995898923814</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1267398788.662585</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +558,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>6495861874.738401</v>
+        <v>4066814903.996479</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003898772297385345</v>
-      </c>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
+        <v>0.1440513138887363</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.03738704296803096</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>14</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2033407470.740776</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +592,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3552519195.261243</v>
+        <v>2942578126.748578</v>
       </c>
       <c r="F5" t="n">
-        <v>0.003443786086141122</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>0.06952266994161209</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.03963276554476788</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>15</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1471289136.857181</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +626,28 @@
         </is>
       </c>
       <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>500</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2735060647.769967</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.121212204311869</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.03871841070236465</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
         <v>5</v>
       </c>
-      <c r="D6" t="n">
-        <v>469</v>
-      </c>
-      <c r="E6" t="n">
-        <v>5757551694.580411</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.002666986392005824</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
+      <c r="J6" t="n">
+        <v>1367530273.772633</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +660,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>6964283997.28634</v>
+        <v>2921345653.37327</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0009813766881218791</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
+        <v>0.09529439732970399</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.04384565635552591</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
         <v>11</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1460672798.960789</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +694,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>4843241935.734832</v>
+        <v>2420076222.463947</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002566922616459651</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
+        <v>0.2184269006039595</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.02878992475511591</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>12</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1210038109.322198</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +728,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>5569373906.084652</v>
+        <v>1781187399.949458</v>
       </c>
       <c r="F9" t="n">
-        <v>0.005207766270897699</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>12</v>
+        <v>0.1533271343906453</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.03690628653468936</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>890593756.776083</v>
       </c>
     </row>
     <row r="10">
@@ -707,19 +765,25 @@
         <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3817175160.292464</v>
+        <v>4835330512.562627</v>
       </c>
       <c r="F10" t="n">
-        <v>0.005550469158757402</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.1510127572098428</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.04165581813399433</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>17</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2417665342.679132</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +796,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3138216280.569897</v>
+        <v>2665630016.672792</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001264626786503767</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>0.1439906752681126</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.03127932178873018</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>16</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1332814927.717412</v>
       </c>
     </row>
     <row r="12">
@@ -763,19 +833,25 @@
         <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>6268933994.87767</v>
+        <v>3239836125.568301</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001836607978159382</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>11</v>
+        <v>0.1874065886553224</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.04659181247231649</v>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>13</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1619918102.590442</v>
       </c>
     </row>
     <row r="13">
@@ -791,19 +867,25 @@
         <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4751254927.767013</v>
+        <v>3928622930.542674</v>
       </c>
       <c r="F13" t="n">
-        <v>0.00410487225124345</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>4</v>
+        <v>0.07157087486025651</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0232368433642636</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>13</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1964311523.669994</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +898,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>7246333751.755263</v>
+        <v>2970903719.551024</v>
       </c>
       <c r="F14" t="n">
-        <v>0.002244001246362281</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>9</v>
+        <v>0.1532727843968671</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.03536114249834825</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>13</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1485451896.16673</v>
       </c>
     </row>
     <row r="15">
@@ -844,22 +932,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>7473626854.496371</v>
+        <v>1231595388.646435</v>
       </c>
       <c r="F15" t="n">
-        <v>0.004875429809831197</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>12</v>
+        <v>0.09288998196850286</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.03408152101250989</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>615797718.8163798</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +966,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>5333367192.702988</v>
+        <v>2118508555.179918</v>
       </c>
       <c r="F16" t="n">
-        <v>0.004785767424386128</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>12</v>
+        <v>0.1109450485298521</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.05024487605274886</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>5</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1059254342.319368</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +1000,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5657436362.979774</v>
+        <v>4869451211.841254</v>
       </c>
       <c r="F17" t="n">
-        <v>0.002560158102262995</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>8</v>
+        <v>0.1136665371443876</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.04538425796401844</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>11</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2434725597.35253</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1034,28 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>6501080145.69777</v>
+        <v>2797767653.10871</v>
       </c>
       <c r="F18" t="n">
-        <v>0.001319476575294984</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>11</v>
+        <v>0.1481357042513431</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.03136171442420605</v>
+      </c>
+      <c r="H18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>12</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1398883871.269549</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +1068,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>3043231851.567965</v>
+        <v>1300061408.884218</v>
       </c>
       <c r="F19" t="n">
-        <v>0.002155575785440862</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1590543242956194</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.02545696259698197</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>650030806.5158647</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +1102,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>5889235995.288823</v>
+        <v>2743246983.911298</v>
       </c>
       <c r="F20" t="n">
-        <v>0.001123602816737869</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
+        <v>0.1388600827780583</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.01976723305971628</v>
+      </c>
+      <c r="H20" t="b">
         <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>4</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1371623438.954983</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1136,28 @@
         </is>
       </c>
       <c r="C21" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" t="n">
+        <v>455</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1864408867.840006</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.09641002522255579</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.04116109962733513</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>3</v>
       </c>
-      <c r="D21" t="n">
-        <v>440</v>
-      </c>
-      <c r="E21" t="n">
-        <v>5868043632.178872</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.004784488272366006</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>7</v>
+      <c r="J21" t="n">
+        <v>932204482.6011546</v>
       </c>
     </row>
     <row r="22">
@@ -1043,19 +1173,25 @@
         <v>5</v>
       </c>
       <c r="D22" t="n">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>4644320138.757431</v>
+        <v>2436418978.716</v>
       </c>
       <c r="F22" t="n">
-        <v>0.004411993091264352</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>3</v>
+        <v>0.1381042512688487</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.0361145171134595</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>10</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1218209584.486829</v>
       </c>
     </row>
     <row r="23">
@@ -1071,19 +1207,25 @@
         <v>5</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>8002995201.572067</v>
+        <v>1139649262.35013</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001836651149998052</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>7</v>
+        <v>0.1391235985064089</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.04095531428391015</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>569824677.6668806</v>
       </c>
     </row>
     <row r="24">
@@ -1099,19 +1241,25 @@
         <v>5</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>7382994246.457665</v>
+        <v>2562636258.842849</v>
       </c>
       <c r="F24" t="n">
-        <v>0.003605134076428414</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
+        <v>0.1071183117922846</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.03291453980383195</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>11</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1281318193.93549</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1272,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>7376651289.235192</v>
+        <v>1241691817.591653</v>
       </c>
       <c r="F25" t="n">
-        <v>0.002699535652922994</v>
-      </c>
-      <c r="G25" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25" t="n">
-        <v>8</v>
+        <v>0.1153125804124046</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.02955742012952004</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>620845916.996451</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1306,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>5476447505.13751</v>
+        <v>966829319.0905015</v>
       </c>
       <c r="F26" t="n">
-        <v>0.001146494073827299</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.0931589070083875</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.0377052238470034</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>483414623.2549773</v>
       </c>
     </row>
     <row r="27">
@@ -1183,19 +1343,25 @@
         <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>7243346104.77232</v>
+        <v>3279763749.964967</v>
       </c>
       <c r="F27" t="n">
-        <v>0.003986646712944449</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>12</v>
+        <v>0.1241154596343192</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.02353410881281427</v>
+      </c>
+      <c r="H27" t="b">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>8</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1639881920.764194</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1374,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>7463257531.957602</v>
+        <v>2789164020.749037</v>
       </c>
       <c r="F28" t="n">
-        <v>0.005336086053968146</v>
-      </c>
-      <c r="G28" t="b">
+        <v>0.1246215472372427</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.04510033794243469</v>
+      </c>
+      <c r="H28" t="b">
         <v>1</v>
       </c>
-      <c r="H28" t="n">
-        <v>9</v>
+      <c r="I28" t="n">
+        <v>12</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1394582003.133754</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1408,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>6747285269.897575</v>
+        <v>3983607411.365332</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001558505756749137</v>
-      </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" t="n">
-        <v>9</v>
+        <v>0.1475221598519406</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.03067703750949566</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>17</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1991803723.559719</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1442,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>8065737754.42186</v>
+        <v>1457760797.531311</v>
       </c>
       <c r="F30" t="n">
-        <v>0.003981102401001161</v>
-      </c>
-      <c r="G30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" t="n">
-        <v>13</v>
+        <v>0.1114069426176278</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.03447214181648549</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>728880374.2962534</v>
       </c>
     </row>
     <row r="31">
@@ -1295,19 +1479,25 @@
         <v>4</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>6125608042.528395</v>
+        <v>1207481419.890748</v>
       </c>
       <c r="F31" t="n">
-        <v>0.002976025761018204</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>8</v>
+        <v>0.08445795355700399</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.05071056791193921</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>603740659.4810196</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1510,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>3625715633.171905</v>
+        <v>1304190788.82309</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0009861032909039935</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.09712990371520179</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.03539967906871529</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>652095422.0459323</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1544,28 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>5511060559.361095</v>
+        <v>2208482540.776689</v>
       </c>
       <c r="F33" t="n">
-        <v>0.002689738985059397</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>8</v>
+        <v>0.1330224241776969</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.04736752611363106</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>11</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1104241333.253059</v>
       </c>
     </row>
     <row r="34">
@@ -1376,22 +1578,28 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>8005767155.359797</v>
+        <v>1208770356.969168</v>
       </c>
       <c r="F34" t="n">
-        <v>0.004625209250029069</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>12</v>
+        <v>0.07358538300837576</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.02396156404144242</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>604385181.9258263</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1612,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>5000569137.840348</v>
+        <v>936185055.6684941</v>
       </c>
       <c r="F35" t="n">
-        <v>0.001855642612279777</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>9</v>
+        <v>0.1174338608223536</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.03119089579575768</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>468092560.2602572</v>
       </c>
     </row>
     <row r="36">
@@ -1432,22 +1646,28 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>6791206161.461892</v>
+        <v>2072675530.402602</v>
       </c>
       <c r="F36" t="n">
-        <v>0.003924807395971096</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>11</v>
+        <v>0.1237953982467574</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.02245710045811731</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>9</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1036337821.268056</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1680,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>5158287416.385241</v>
+        <v>1973474246.676347</v>
       </c>
       <c r="F37" t="n">
-        <v>0.004413897170082772</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
+        <v>0.07682885317183562</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.03375689584909494</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>10</v>
+      </c>
+      <c r="J37" t="n">
+        <v>986737146.7878567</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1714,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>3558209714.881762</v>
+        <v>2056562953.60584</v>
       </c>
       <c r="F38" t="n">
-        <v>0.004790591426287917</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.08197339660385146</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.02914678408685693</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1028281447.279727</v>
       </c>
     </row>
     <row r="39">
@@ -1519,19 +1751,25 @@
         <v>2</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>5023460810.323817</v>
+        <v>1338933978.215418</v>
       </c>
       <c r="F39" t="n">
-        <v>0.002778622305564477</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>4</v>
+        <v>0.1188351042369468</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.02652527753196762</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>669467083.8012009</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1782,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>5199975789.00698</v>
+        <v>1172740552.691812</v>
       </c>
       <c r="F40" t="n">
-        <v>0.003815418966523786</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>10</v>
+        <v>0.1514925725506805</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.05984764971302797</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>586370324.3116415</v>
       </c>
     </row>
     <row r="41">
@@ -1575,19 +1819,25 @@
         <v>3</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>6653790720.51803</v>
+        <v>1814532878.745898</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001235646945648179</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>11</v>
+        <v>0.132323367937042</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.03005054986929756</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>12</v>
+      </c>
+      <c r="J41" t="n">
+        <v>907266531.4966328</v>
       </c>
     </row>
     <row r="42">
@@ -1600,22 +1850,28 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>6495968455.279129</v>
+        <v>4058617064.755754</v>
       </c>
       <c r="F42" t="n">
-        <v>0.003896572689527934</v>
-      </c>
-      <c r="G42" t="b">
+        <v>0.1235477567496119</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.03561226711778908</v>
+      </c>
+      <c r="H42" t="b">
         <v>1</v>
       </c>
-      <c r="H42" t="n">
-        <v>9</v>
+      <c r="I42" t="n">
+        <v>12</v>
+      </c>
+      <c r="J42" t="n">
+        <v>2029308565.559351</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1884,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>4726467967.288742</v>
+        <v>3061607164.302722</v>
       </c>
       <c r="F43" t="n">
-        <v>0.003248473199175453</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>9</v>
+        <v>0.1490174961302149</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.02260131730673785</v>
+      </c>
+      <c r="H43" t="b">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>12</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1530803574.194484</v>
       </c>
     </row>
     <row r="44">
@@ -1656,22 +1918,28 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>6818906164.883245</v>
+        <v>1531071697.092089</v>
       </c>
       <c r="F44" t="n">
-        <v>0.001650408716810333</v>
-      </c>
-      <c r="G44" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" t="n">
-        <v>10</v>
+        <v>0.08435904586475154</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.02623948138639477</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>765535861.1703308</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1952,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>5590458069.926175</v>
+        <v>1559773321.446102</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001109349399316002</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>3</v>
+        <v>0.1815966090434891</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.03996244037456578</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>779886607.1009688</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1986,28 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>11372069477.03732</v>
+        <v>4369280472.923591</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0044960415149165</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>6</v>
+        <v>0.1499298298662937</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.0389053279393128</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>14</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2184640227.003453</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2020,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>6514801264.667577</v>
+        <v>3543086371.51004</v>
       </c>
       <c r="F47" t="n">
-        <v>0.002653983117994227</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>6</v>
+        <v>0.1537679555421986</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.05895151102911426</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>10</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1771543158.848613</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2054,28 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>5266342842.226315</v>
+        <v>3694084802.248312</v>
       </c>
       <c r="F48" t="n">
-        <v>0.003054531235341954</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>6</v>
+        <v>0.07182667447155916</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.03526128884493532</v>
+      </c>
+      <c r="H48" t="b">
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>12</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1847042453.089159</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +2088,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>5895049133.764797</v>
+        <v>1960902298.39847</v>
       </c>
       <c r="F49" t="n">
-        <v>0.004567371130095146</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
+        <v>0.1238625590671344</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.03608697528601098</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>980451109.3539461</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +2122,28 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>6662434274.410016</v>
+        <v>4061365965.120224</v>
       </c>
       <c r="F50" t="n">
-        <v>0.002554529996110628</v>
-      </c>
-      <c r="G50" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" t="n">
-        <v>10</v>
+        <v>0.1684730032663003</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.04822623968918453</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>13</v>
+      </c>
+      <c r="J50" t="n">
+        <v>2030682966.668175</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +2156,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>4369898414.507799</v>
+        <v>1200025531.522928</v>
       </c>
       <c r="F51" t="n">
-        <v>0.005483722941036849</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.1450859782538111</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.03292546821856475</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>600012817.1541649</v>
       </c>
     </row>
     <row r="52">
@@ -1880,22 +2190,28 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>7150479395.025399</v>
+        <v>4344783775.422084</v>
       </c>
       <c r="F52" t="n">
-        <v>0.001444164594432301</v>
-      </c>
-      <c r="G52" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" t="n">
-        <v>9</v>
+        <v>0.1334285014189571</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.04871339651530072</v>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>16</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2172391923.743655</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2224,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>5656525149.391794</v>
+        <v>2572174688.988262</v>
       </c>
       <c r="F53" t="n">
-        <v>0.002738409459297914</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>7</v>
+        <v>0.1339936128082612</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.02591973798406632</v>
+      </c>
+      <c r="H53" t="b">
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>10</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1286087406.324267</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2258,28 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>6500675861.521707</v>
+        <v>4219344022.493331</v>
       </c>
       <c r="F54" t="n">
-        <v>0.004599243323726942</v>
-      </c>
-      <c r="G54" t="b">
+        <v>0.1671759003889277</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.04969452955615856</v>
+      </c>
+      <c r="H54" t="b">
         <v>1</v>
       </c>
-      <c r="H54" t="n">
-        <v>9</v>
+      <c r="I54" t="n">
+        <v>12</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2109672092.356232</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2292,28 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>7556575776.13204</v>
+        <v>3793713789.70294</v>
       </c>
       <c r="F55" t="n">
-        <v>0.003939794890089438</v>
-      </c>
-      <c r="G55" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" t="n">
-        <v>12</v>
+        <v>0.1838166265965012</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.02489919516107622</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>10</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1896856860.528469</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +2326,28 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>4048790211.672628</v>
+        <v>1466374220.13239</v>
       </c>
       <c r="F56" t="n">
-        <v>0.002656356226728508</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>5</v>
+        <v>0.1541062684354871</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.04286204063423091</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>733187157.0950683</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2360,28 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>8372576284.444219</v>
+        <v>2836902298.987092</v>
       </c>
       <c r="F57" t="n">
-        <v>0.00397391263558635</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>9</v>
+        <v>0.1724476822347954</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.01789439517283279</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>12</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1418451140.037233</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2394,28 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>6443326772.34684</v>
+        <v>1169595203.340076</v>
       </c>
       <c r="F58" t="n">
-        <v>0.001999942211123399</v>
-      </c>
-      <c r="G58" t="b">
-        <v>1</v>
-      </c>
-      <c r="H58" t="n">
-        <v>8</v>
+        <v>0.1839588639488744</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.03857396551599277</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>584797662.7239039</v>
       </c>
     </row>
     <row r="59">
@@ -2079,19 +2431,25 @@
         <v>3</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5925656410.328029</v>
+        <v>3564094299.818443</v>
       </c>
       <c r="F59" t="n">
-        <v>0.003552344640816397</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>4</v>
+        <v>0.1068086121026142</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.03709658266707802</v>
+      </c>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>10</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1782047146.691714</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2462,28 @@
         </is>
       </c>
       <c r="C60" t="n">
+        <v>4</v>
+      </c>
+      <c r="D60" t="n">
+        <v>490</v>
+      </c>
+      <c r="E60" t="n">
+        <v>2794955081.385007</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.1775694174594492</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.02713175194086472</v>
+      </c>
+      <c r="H60" t="b">
         <v>1</v>
       </c>
-      <c r="D60" t="n">
-        <v>424</v>
-      </c>
-      <c r="E60" t="n">
-        <v>5141184392.745064</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0.002935043533080166</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
+      <c r="I60" t="n">
+        <v>11</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1397477589.384726</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2496,28 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>6363148740.706999</v>
+        <v>2623512953.931054</v>
       </c>
       <c r="F61" t="n">
-        <v>0.004659631224942327</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>9</v>
+        <v>0.1553308423106449</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.0252960943018484</v>
+      </c>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>13</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1311756492.773287</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2530,28 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>5018013855.085196</v>
+        <v>1390778016.55562</v>
       </c>
       <c r="F62" t="n">
-        <v>0.004080357529369564</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>7</v>
+        <v>0.1250164084609784</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.03413329785283593</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>695388974.8040552</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2564,28 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>6243091322.396474</v>
+        <v>3739191607.361565</v>
       </c>
       <c r="F63" t="n">
-        <v>0.004878552407080356</v>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>10</v>
+        <v>0.07007942397851437</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.03845803671042818</v>
+      </c>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>11</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1869595877.547841</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2598,28 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3415662017.438454</v>
+        <v>4289757474.670967</v>
       </c>
       <c r="F64" t="n">
-        <v>0.004661336943975114</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.1626651493762679</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.03466258010880658</v>
+      </c>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>12</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2144878793.408996</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2632,28 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5318271244.703626</v>
+        <v>5148256225.85448</v>
       </c>
       <c r="F65" t="n">
-        <v>0.004915031903694857</v>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>10</v>
+        <v>0.1471449817194309</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.02369627763316003</v>
+      </c>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>14</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2574128062.830286</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2666,28 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4538132903.076892</v>
+        <v>3455797945.763165</v>
       </c>
       <c r="F66" t="n">
-        <v>0.003750872283577951</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>7</v>
+        <v>0.1570542542458797</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.04918869965666468</v>
+      </c>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>11</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1727898917.104902</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2700,28 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>6135549929.990668</v>
+        <v>2243291786.028393</v>
       </c>
       <c r="F67" t="n">
-        <v>0.004413462850367364</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>7</v>
+        <v>0.08274518763042368</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.03835324387995311</v>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>12</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1121645975.111304</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2734,28 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>7386878757.995302</v>
+        <v>3975713152.414612</v>
       </c>
       <c r="F68" t="n">
-        <v>0.002059058739210503</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>8</v>
+        <v>0.118151063385423</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.05032218861712556</v>
+      </c>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>12</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1987856570.346326</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2768,28 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>5075402386.300547</v>
+        <v>1502632242.119818</v>
       </c>
       <c r="F69" t="n">
-        <v>0.000780277283763442</v>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>6</v>
+        <v>0.1817917373055696</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.04416158682407006</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>751316061.5290196</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2802,28 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>5615546977.852857</v>
+        <v>3249022590.25115</v>
       </c>
       <c r="F70" t="n">
-        <v>0.002668902470707401</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
-        <v>10</v>
+        <v>0.07085262247764779</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.04942539362814549</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>11</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1624511288.143364</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2836,28 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5158799139.743493</v>
+        <v>3936912991.310346</v>
       </c>
       <c r="F71" t="n">
-        <v>0.003063994281058302</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.1685330472070731</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.03356818368652992</v>
+      </c>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>14</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1968456521.840734</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2870,28 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>7107344319.931016</v>
+        <v>2062787339.708734</v>
       </c>
       <c r="F72" t="n">
-        <v>0.002347701636019709</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>8</v>
+        <v>0.07304080071034021</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.04057622384325611</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1031393605.875719</v>
       </c>
     </row>
     <row r="73">
@@ -2471,19 +2907,25 @@
         <v>2</v>
       </c>
       <c r="D73" t="n">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>7429336531.456982</v>
+        <v>2718613580.709015</v>
       </c>
       <c r="F73" t="n">
-        <v>0.001108726713846947</v>
-      </c>
-      <c r="G73" t="b">
+        <v>0.07949404509586623</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.03995548614839309</v>
+      </c>
+      <c r="H73" t="b">
         <v>1</v>
       </c>
-      <c r="H73" t="n">
-        <v>8</v>
+      <c r="I73" t="n">
+        <v>14</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1359306811.908251</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2938,28 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>5883367994.421992</v>
+        <v>3886080735.732104</v>
       </c>
       <c r="F74" t="n">
-        <v>0.004468341717783493</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>8</v>
+        <v>0.1746735395034937</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.02708659442462637</v>
+      </c>
+      <c r="H74" t="b">
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>12</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1943040356.494488</v>
       </c>
     </row>
     <row r="75">
@@ -2524,22 +2972,28 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>7349907758.826534</v>
+        <v>1808701158.321473</v>
       </c>
       <c r="F75" t="n">
-        <v>0.003829102034949864</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>7</v>
+        <v>0.1077455404510991</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.03415602564147113</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>904350561.1270661</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +3006,28 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5748189578.752929</v>
+        <v>3539354055.56091</v>
       </c>
       <c r="F76" t="n">
-        <v>0.002369175028489364</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" t="n">
-        <v>7</v>
+        <v>0.1154192024946026</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.03021197244412606</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>8</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1769676992.995397</v>
       </c>
     </row>
     <row r="77">
@@ -2583,19 +3043,25 @@
         <v>5</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>5104071826.203644</v>
+        <v>1750369161.455933</v>
       </c>
       <c r="F77" t="n">
-        <v>0.00402383050739068</v>
-      </c>
-      <c r="G77" t="b">
-        <v>0</v>
-      </c>
-      <c r="H77" t="n">
-        <v>13</v>
+        <v>0.1408125470072086</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.02033633045462179</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>875184605.193575</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +3074,28 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>5707979556.644737</v>
+        <v>3238494937.750942</v>
       </c>
       <c r="F78" t="n">
-        <v>0.004777793811575717</v>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>7</v>
+        <v>0.09072228560547521</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.036926767529171</v>
+      </c>
+      <c r="H78" t="b">
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>13</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1619247488.966484</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +3108,28 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>6335249731.173259</v>
+        <v>1401471603.413999</v>
       </c>
       <c r="F79" t="n">
-        <v>0.002486189468548605</v>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>8</v>
+        <v>0.118917112575011</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.03661500713509668</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>700735818.4658022</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +3142,28 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>6173847275.134556</v>
+        <v>4957548138.003299</v>
       </c>
       <c r="F80" t="n">
-        <v>0.002861523348580929</v>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80" t="n">
-        <v>13</v>
+        <v>0.1096304728811367</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.02650005531063167</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>8</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2478774115.917611</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3176,28 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4853190032.813906</v>
+        <v>3750895775.613468</v>
       </c>
       <c r="F81" t="n">
-        <v>0.003666787630715077</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
-        <v>7</v>
+        <v>0.09138234809878057</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.02513367789307596</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>8</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1875447841.580645</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3210,28 @@
         </is>
       </c>
       <c r="C82" t="n">
+        <v>2</v>
+      </c>
+      <c r="D82" t="n">
+        <v>520</v>
+      </c>
+      <c r="E82" t="n">
+        <v>4149346713.475599</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.1455234417431299</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.02816133122662816</v>
+      </c>
+      <c r="H82" t="b">
         <v>1</v>
       </c>
-      <c r="D82" t="n">
-        <v>423</v>
-      </c>
-      <c r="E82" t="n">
-        <v>6131540368.91733</v>
-      </c>
-      <c r="F82" t="n">
-        <v>0.004292359552986809</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" t="n">
-        <v>7</v>
+      <c r="I82" t="n">
+        <v>13</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2074673387.953166</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +3244,28 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>10338599020.78955</v>
+        <v>2050775664.523845</v>
       </c>
       <c r="F83" t="n">
-        <v>0.002243999359946178</v>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83" t="n">
-        <v>12</v>
+        <v>0.1527721657431639</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.03994099342902166</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1025387823.728095</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +3278,28 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>6381938326.510144</v>
+        <v>2030431895.064939</v>
       </c>
       <c r="F84" t="n">
-        <v>0.005008760964037774</v>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84" t="n">
-        <v>11</v>
+        <v>0.1017166737840905</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.03291888230248194</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1015215947.914515</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +3312,28 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3709902963.18509</v>
+        <v>2545772935.780134</v>
       </c>
       <c r="F85" t="n">
-        <v>0.003133226851391811</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
+        <v>0.1180992755188887</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.05092516611192877</v>
+      </c>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>14</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1272886477.730574</v>
       </c>
     </row>
     <row r="86">
@@ -2835,19 +3349,25 @@
         <v>5</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>9038618195.295189</v>
+        <v>2619973752.885425</v>
       </c>
       <c r="F86" t="n">
-        <v>0.001830955576945159</v>
-      </c>
-      <c r="G86" t="b">
+        <v>0.1287557820487373</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.02328213058526594</v>
+      </c>
+      <c r="H86" t="b">
         <v>1</v>
       </c>
-      <c r="H86" t="n">
-        <v>12</v>
+      <c r="I86" t="n">
+        <v>2</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1309986990.091057</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +3380,28 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>4952590971.693547</v>
+        <v>1281997308.988393</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001311451797152433</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.1178022764665645</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.04248970006593216</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>640998730.9489282</v>
       </c>
     </row>
     <row r="88">
@@ -2888,22 +3414,28 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>8153743960.717429</v>
+        <v>2482384731.436113</v>
       </c>
       <c r="F88" t="n">
-        <v>0.00579568291786612</v>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" t="n">
-        <v>9</v>
+        <v>0.1703789176307156</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.02477459373282351</v>
+      </c>
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>14</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1241192344.848117</v>
       </c>
     </row>
     <row r="89">
@@ -2919,19 +3451,25 @@
         <v>3</v>
       </c>
       <c r="D89" t="n">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>5550643625.104053</v>
+        <v>2113369144.625388</v>
       </c>
       <c r="F89" t="n">
-        <v>0.00464121355900485</v>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" t="n">
-        <v>8</v>
+        <v>0.1368433258052975</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.03710985101357131</v>
+      </c>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>13</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1056684675.27955</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +3482,28 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>6583811207.393835</v>
+        <v>1500970566.859665</v>
       </c>
       <c r="F90" t="n">
-        <v>0.002968554144267134</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" t="n">
-        <v>7</v>
+        <v>0.1035208700218838</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.04342129960890146</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>750485262.147252</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +3516,28 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>5040128182.916044</v>
+        <v>1310581857.922456</v>
       </c>
       <c r="F91" t="n">
-        <v>0.003163648010973528</v>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91" t="n">
-        <v>11</v>
+        <v>0.1741944271259862</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.05585545050183829</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>655290992.9537718</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3550,28 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>5316068226.672538</v>
+        <v>1871315124.878217</v>
       </c>
       <c r="F92" t="n">
-        <v>0.003202783013138913</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+        <v>0.1082406426380531</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.03733937495470908</v>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>10</v>
+      </c>
+      <c r="J92" t="n">
+        <v>935657498.6964591</v>
       </c>
     </row>
     <row r="93">
@@ -3031,19 +3587,25 @@
         <v>4</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>7139053943.884291</v>
+        <v>4477532209.9668</v>
       </c>
       <c r="F93" t="n">
-        <v>0.001258199535052346</v>
-      </c>
-      <c r="G93" t="b">
-        <v>1</v>
-      </c>
-      <c r="H93" t="n">
-        <v>13</v>
+        <v>0.1423248711980456</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.03882314460363229</v>
+      </c>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>11</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2238766074.571002</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3618,28 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>6122882435.574469</v>
+        <v>1586903707.436584</v>
       </c>
       <c r="F94" t="n">
-        <v>0.001059650622047036</v>
-      </c>
-      <c r="G94" t="b">
-        <v>1</v>
-      </c>
-      <c r="H94" t="n">
-        <v>13</v>
+        <v>0.1227542546527796</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.04084087398875842</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>793451798.117722</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3652,28 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>7018543321.796083</v>
+        <v>2146576921.8433</v>
       </c>
       <c r="F95" t="n">
-        <v>0.002963347446909395</v>
-      </c>
-      <c r="G95" t="b">
-        <v>1</v>
-      </c>
-      <c r="H95" t="n">
-        <v>9</v>
+        <v>0.1007956524188243</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.03964265047096496</v>
+      </c>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>10</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1073288522.52254</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3686,28 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>8135691026.057796</v>
+        <v>1894486510.772027</v>
       </c>
       <c r="F96" t="n">
-        <v>0.002680517534413952</v>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96" t="n">
-        <v>10</v>
+        <v>0.1189464569956566</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.02994270452342256</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>947243253.4636508</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3720,28 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>6610650408.600132</v>
+        <v>5049532695.322556</v>
       </c>
       <c r="F97" t="n">
-        <v>0.005074715585160196</v>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97" t="n">
-        <v>10</v>
+        <v>0.1326576939494298</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.019876426773909</v>
+      </c>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>12</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2524766488.249261</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3754,28 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
-        <v>616</v>
+        <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>6723327276.652674</v>
+        <v>3867350892.336379</v>
       </c>
       <c r="F98" t="n">
-        <v>0.003957707546183745</v>
-      </c>
-      <c r="G98" t="b">
-        <v>1</v>
-      </c>
-      <c r="H98" t="n">
-        <v>14</v>
+        <v>0.1049200485845314</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.03143947376882741</v>
+      </c>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>10</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1933675489.523098</v>
       </c>
     </row>
     <row r="99">
@@ -3199,19 +3791,25 @@
         <v>3</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3058653531.78086</v>
+        <v>3062512389.062279</v>
       </c>
       <c r="F99" t="n">
-        <v>0.005201424856546117</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.1355964255687806</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.03440679013639197</v>
+      </c>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>12</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1531256184.876525</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3822,28 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>5646600788.63553</v>
+        <v>4549882666.643639</v>
       </c>
       <c r="F100" t="n">
-        <v>0.002893502808614756</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>3</v>
+        <v>0.1596013589240031</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.02641352018532833</v>
+      </c>
+      <c r="H100" t="b">
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>11</v>
+      </c>
+      <c r="J100" t="n">
+        <v>2274941447.722439</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3856,28 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>7230349278.289206</v>
+        <v>2904033630.656364</v>
       </c>
       <c r="F101" t="n">
-        <v>0.001703072909887914</v>
-      </c>
-      <c r="G101" t="b">
+        <v>0.1950017479229739</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.04613507224515312</v>
+      </c>
+      <c r="H101" t="b">
         <v>1</v>
       </c>
-      <c r="H101" t="n">
-        <v>12</v>
+      <c r="I101" t="n">
+        <v>16</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1452016891.530541</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_38.xlsx
+++ b/output/fit_clients/fit_round_38.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1935553987.510495</v>
+        <v>2255477202.345406</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1133347208721824</v>
+        <v>0.08254986983515934</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04191972707672226</v>
+        <v>0.0374654529204661</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>967776980.6047047</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2534797331.887137</v>
+        <v>2485952318.750674</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1744808861925735</v>
+        <v>0.1316315829213054</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04955995898923814</v>
+        <v>0.04620137182148241</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1267398788.662585</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4066814903.996479</v>
+        <v>4635026884.629357</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1440513138887363</v>
+        <v>0.1577968592191812</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03738704296803096</v>
+        <v>0.03077017453520338</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>14</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2033407470.740776</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2942578126.748578</v>
+        <v>3572100275.511742</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06952266994161209</v>
+        <v>0.1035547869559857</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03963276554476788</v>
+        <v>0.04673940347790629</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>15</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1471289136.857181</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2735060647.769967</v>
+        <v>1912451989.893035</v>
       </c>
       <c r="F6" t="n">
-        <v>0.121212204311869</v>
+        <v>0.1211652553972814</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03871841070236465</v>
+        <v>0.053182552588329</v>
       </c>
       <c r="H6" t="b">
         <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>5</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1367530273.772633</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2921345653.37327</v>
+        <v>2931860828.899193</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09529439732970399</v>
+        <v>0.08476763646457991</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04384565635552591</v>
+        <v>0.03226963478874836</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>11</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1460672798.960789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2420076222.463947</v>
+        <v>3337575562.244058</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2184269006039595</v>
+        <v>0.149508323696576</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02878992475511591</v>
+        <v>0.02164771928663512</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>12</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1210038109.322198</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1781187399.949458</v>
+        <v>2146466028.524438</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1533271343906453</v>
+        <v>0.1803834220188331</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03690628653468936</v>
+        <v>0.02276703631534198</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>890593756.776083</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4835330512.562627</v>
+        <v>4940466666.177314</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1510127572098428</v>
+        <v>0.2092653188068951</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04165581813399433</v>
+        <v>0.04540706441995782</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>17</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2417665342.679132</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2665630016.672792</v>
+        <v>3196605827.884299</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1439906752681126</v>
+        <v>0.1760280477359903</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03127932178873018</v>
+        <v>0.04145989058788266</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>16</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1332814927.717412</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3239836125.568301</v>
+        <v>2913548745.266395</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1874065886553224</v>
+        <v>0.1955353605157522</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04659181247231649</v>
+        <v>0.033332816541669</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>13</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1619918102.590442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3928622930.542674</v>
+        <v>3870299141.615674</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07157087486025651</v>
+        <v>0.06330276033615624</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0232368433642636</v>
+        <v>0.02478742069465575</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>13</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1964311523.669994</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2970903719.551024</v>
+        <v>3770578061.203588</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1532727843968671</v>
+        <v>0.1611623150290538</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03536114249834825</v>
+        <v>0.03786980872908786</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>13</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1485451896.16673</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1231595388.646435</v>
+        <v>1359245884.689037</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09288998196850286</v>
+        <v>0.08407440551064921</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03408152101250989</v>
+        <v>0.04647647844502811</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>615797718.8163798</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2118508555.179918</v>
+        <v>2191729373.910956</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1109450485298521</v>
+        <v>0.1162167291614315</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05024487605274886</v>
+        <v>0.03822471987891304</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>5</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1059254342.319368</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4869451211.841254</v>
+        <v>4802343598.81682</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1136665371443876</v>
+        <v>0.1127581647457873</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04538425796401844</v>
+        <v>0.03778937233956214</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>11</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2434725597.35253</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2797767653.10871</v>
+        <v>3451316965.375282</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1481357042513431</v>
+        <v>0.125403451796407</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03136171442420605</v>
+        <v>0.02644918756472667</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>12</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1398883871.269549</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1300061408.884218</v>
+        <v>1111164520.380609</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1590543242956194</v>
+        <v>0.1204711348645659</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02545696259698197</v>
+        <v>0.02669375409069473</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>650030806.5158647</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2743246983.911298</v>
+        <v>2796558069.307032</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1388600827780583</v>
+        <v>0.105713673386018</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01976723305971628</v>
+        <v>0.02890012618416997</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>4</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1371623438.954983</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1864408867.840006</v>
+        <v>1951483498.504452</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09641002522255579</v>
+        <v>0.07245284859214486</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04116109962733513</v>
+        <v>0.03649624245538597</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>3</v>
-      </c>
-      <c r="J21" t="n">
-        <v>932204482.6011546</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2436418978.716</v>
+        <v>3580610074.388512</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1381042512688487</v>
+        <v>0.09590170765058462</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0361145171134595</v>
+        <v>0.05626478588607554</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>10</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1218209584.486829</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1139649262.35013</v>
+        <v>1187517731.21002</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1391235985064089</v>
+        <v>0.1236923177366104</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04095531428391015</v>
+        <v>0.04926834981857994</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>569824677.6668806</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2562636258.842849</v>
+        <v>3246729883.04288</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1071183117922846</v>
+        <v>0.1117360832467746</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03291453980383195</v>
+        <v>0.02387386582559756</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>11</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1281318193.93549</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1241691817.591653</v>
+        <v>1260035893.347811</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1153125804124046</v>
+        <v>0.1198508142762144</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02955742012952004</v>
+        <v>0.01961037918274184</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>620845916.996451</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>966829319.0905015</v>
+        <v>1261143239.594953</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0931589070083875</v>
+        <v>0.09344435869017245</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0377052238470034</v>
+        <v>0.03441316468216374</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>483414623.2549773</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3279763749.964967</v>
+        <v>3468334192.370335</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1241154596343192</v>
+        <v>0.09539976685061502</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02353410881281427</v>
+        <v>0.01802352137197985</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>8</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1639881920.764194</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2789164020.749037</v>
+        <v>3460468740.893308</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1246215472372427</v>
+        <v>0.1397011785854137</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04510033794243469</v>
+        <v>0.03287990855886201</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>12</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1394582003.133754</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3983607411.365332</v>
+        <v>4924227161.05534</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1475221598519406</v>
+        <v>0.1044697265699338</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03067703750949566</v>
+        <v>0.03868070731248803</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>17</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1991803723.559719</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1457760797.531311</v>
+        <v>2218542593.99994</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1114069426176278</v>
+        <v>0.1115392855942983</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03447214181648549</v>
+        <v>0.03408373384078671</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>728880374.2962534</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1207481419.890748</v>
+        <v>929036721.603227</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08445795355700399</v>
+        <v>0.07872792882566507</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05071056791193921</v>
+        <v>0.03818857517291546</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>603740659.4810196</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1304190788.82309</v>
+        <v>1252614448.472152</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09712990371520179</v>
+        <v>0.1167165014916335</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03539967906871529</v>
+        <v>0.03448333943718625</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>652095422.0459323</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2208482540.776689</v>
+        <v>3035145600.103465</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1330224241776969</v>
+        <v>0.1890645832955903</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04736752611363106</v>
+        <v>0.05999411884057486</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>11</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1104241333.253059</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1208770356.969168</v>
+        <v>1220762536.18011</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07358538300837576</v>
+        <v>0.09025410621329648</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02396156404144242</v>
+        <v>0.01947117290789191</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>604385181.9258263</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>936185055.6684941</v>
+        <v>845421704.9064834</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1174338608223536</v>
+        <v>0.07357359906053741</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03119089579575768</v>
+        <v>0.0396362206948891</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>468092560.2602572</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2072675530.402602</v>
+        <v>2741606828.619179</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1237953982467574</v>
+        <v>0.1479835178846182</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02245710045811731</v>
+        <v>0.02793738601644178</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>9</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1036337821.268056</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1973474246.676347</v>
+        <v>2574663650.693715</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07682885317183562</v>
+        <v>0.07921908943195824</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03375689584909494</v>
+        <v>0.03408694196704446</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>10</v>
-      </c>
-      <c r="J37" t="n">
-        <v>986737146.7878567</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2056562953.60584</v>
+        <v>1527009865.398041</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08197339660385146</v>
+        <v>0.1213139710335562</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02914678408685693</v>
+        <v>0.03961690430550027</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1028281447.279727</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1338933978.215418</v>
+        <v>1692521097.592468</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1188351042369468</v>
+        <v>0.1768429407144683</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02652527753196762</v>
+        <v>0.02999193471450782</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>669467083.8012009</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1172740552.691812</v>
+        <v>1813643950.25264</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1514925725506805</v>
+        <v>0.1000191213055531</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05984764971302797</v>
+        <v>0.0501492100767094</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>586370324.3116415</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1814532878.745898</v>
+        <v>1974342260.047083</v>
       </c>
       <c r="F41" t="n">
-        <v>0.132323367937042</v>
+        <v>0.1302309048563794</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03005054986929756</v>
+        <v>0.04513078044161852</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>12</v>
-      </c>
-      <c r="J41" t="n">
-        <v>907266531.4966328</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4058617064.755754</v>
+        <v>3503498835.595553</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1235477567496119</v>
+        <v>0.0882238663920988</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03561226711778908</v>
+        <v>0.03211073253164731</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>12</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2029308565.559351</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3061607164.302722</v>
+        <v>2768182851.210109</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1490174961302149</v>
+        <v>0.184559964171366</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02260131730673785</v>
+        <v>0.02282756755536315</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>12</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1530803574.194484</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1531071697.092089</v>
+        <v>1503346087.987482</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08435904586475154</v>
+        <v>0.08765846208892863</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02623948138639477</v>
+        <v>0.02690905906178436</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>765535861.1703308</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1559773321.446102</v>
+        <v>1844039536.31104</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1815966090434891</v>
+        <v>0.1298898315485443</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03996244037456578</v>
+        <v>0.05279586442238213</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>779886607.1009688</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4369280472.923591</v>
+        <v>5524305884.877751</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1499298298662937</v>
+        <v>0.1780007880308777</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0389053279393128</v>
+        <v>0.05726448819531648</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>14</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2184640227.003453</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3543086371.51004</v>
+        <v>3893236172.176789</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1537679555421986</v>
+        <v>0.1293590858990634</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05895151102911426</v>
+        <v>0.03905424136627353</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>10</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1771543158.848613</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3694084802.248312</v>
+        <v>3782138436.966103</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07182667447155916</v>
+        <v>0.1036795720050637</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03526128884493532</v>
+        <v>0.02726043340062515</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>12</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1847042453.089159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1960902298.39847</v>
+        <v>1463100024.867666</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1238625590671344</v>
+        <v>0.153813523838315</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03608697528601098</v>
+        <v>0.03602039551289024</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>980451109.3539461</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4061365965.120224</v>
+        <v>3553435405.708451</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1684730032663003</v>
+        <v>0.1628051813670464</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04822623968918453</v>
+        <v>0.04489122458539849</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>13</v>
-      </c>
-      <c r="J50" t="n">
-        <v>2030682966.668175</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1200025531.522928</v>
+        <v>959034561.2284248</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1450859782538111</v>
+        <v>0.1461209292088677</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03292546821856475</v>
+        <v>0.04267535240659875</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>600012817.1541649</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4344783775.422084</v>
+        <v>3512309804.269302</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1334285014189571</v>
+        <v>0.1219380183471589</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04871339651530072</v>
+        <v>0.04268744129745366</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>16</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2172391923.743655</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2572174688.988262</v>
+        <v>3181203960.837417</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1339936128082612</v>
+        <v>0.1463533683918758</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02591973798406632</v>
+        <v>0.02404470430666968</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>10</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1286087406.324267</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4219344022.493331</v>
+        <v>3627989936.117373</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1671759003889277</v>
+        <v>0.1449700572138281</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04969452955615856</v>
+        <v>0.04468974613178694</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>12</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2109672092.356232</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3793713789.70294</v>
+        <v>3104599206.534762</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1838166265965012</v>
+        <v>0.2075831379338862</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02489919516107622</v>
+        <v>0.03261417476853693</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>10</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1896856860.528469</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1466374220.13239</v>
+        <v>1405712270.11061</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1541062684354871</v>
+        <v>0.1331611705630005</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04286204063423091</v>
+        <v>0.05553455885133018</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>733187157.0950683</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2836902298.987092</v>
+        <v>4034178744.858725</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1724476822347954</v>
+        <v>0.1267048055494636</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01789439517283279</v>
+        <v>0.02303727887512766</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>12</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1418451140.037233</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1169595203.340076</v>
+        <v>1762083015.070676</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1839588639488744</v>
+        <v>0.1738735326642937</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03857396551599277</v>
+        <v>0.0281860356836189</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>584797662.7239039</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3564094299.818443</v>
+        <v>5205368954.159616</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1068086121026142</v>
+        <v>0.08058904392636783</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03709658266707802</v>
+        <v>0.04922060679868931</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>10</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1782047146.691714</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2794955081.385007</v>
+        <v>3690841074.153963</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1775694174594492</v>
+        <v>0.1305629477500295</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02713175194086472</v>
+        <v>0.02759429041182667</v>
       </c>
       <c r="H60" t="b">
         <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>11</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1397477589.384726</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2623512953.931054</v>
+        <v>2457769322.971362</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1553308423106449</v>
+        <v>0.1552675184493337</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0252960943018484</v>
+        <v>0.02666510077763621</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>13</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1311756492.773287</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1390778016.55562</v>
+        <v>1443017148.573231</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1250164084609784</v>
+        <v>0.1319104603056323</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03413329785283593</v>
+        <v>0.04531393665314433</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>695388974.8040552</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3739191607.361565</v>
+        <v>4374380538.161725</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07007942397851437</v>
+        <v>0.1037448792951696</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03845803671042818</v>
+        <v>0.03375067230505825</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>11</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1869595877.547841</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4289757474.670967</v>
+        <v>4630376452.944156</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1626651493762679</v>
+        <v>0.1499341808094575</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03466258010880658</v>
+        <v>0.03227512550846471</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>12</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2144878793.408996</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5148256225.85448</v>
+        <v>5597793710.41176</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1471449817194309</v>
+        <v>0.1058495068257315</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02369627763316003</v>
+        <v>0.02429397009453907</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>14</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2574128062.830286</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3455797945.763165</v>
+        <v>4841539774.695102</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1570542542458797</v>
+        <v>0.1256451509330899</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04918869965666468</v>
+        <v>0.03692189215884394</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>11</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1727898917.104902</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2243291786.028393</v>
+        <v>2926319795.098353</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08274518763042368</v>
+        <v>0.06954197470971737</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03835324387995311</v>
+        <v>0.03877720240382522</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>12</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1121645975.111304</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3975713152.414612</v>
+        <v>5575872461.562296</v>
       </c>
       <c r="F68" t="n">
-        <v>0.118151063385423</v>
+        <v>0.13267042850497</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05032218861712556</v>
+        <v>0.04735805621857355</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>12</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1987856570.346326</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1502632242.119818</v>
+        <v>2479616200.881</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1817917373055696</v>
+        <v>0.1655184725457839</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04416158682407006</v>
+        <v>0.05336496971916484</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>751316061.5290196</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3249022590.25115</v>
+        <v>3153135421.046882</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07085262247764779</v>
+        <v>0.08289153022790827</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04942539362814549</v>
+        <v>0.04756714828906763</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>11</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1624511288.143364</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3936912991.310346</v>
+        <v>5516610664.915991</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1685330472070731</v>
+        <v>0.1161621969497959</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03356818368652992</v>
+        <v>0.03399064435930987</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>14</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1968456521.840734</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2062787339.708734</v>
+        <v>1875780498.760091</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07304080071034021</v>
+        <v>0.09282423082136537</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04057622384325611</v>
+        <v>0.04415814012167293</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1031393605.875719</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2718613580.709015</v>
+        <v>2279058495.7807</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07949404509586623</v>
+        <v>0.07293969066943773</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03995548614839309</v>
+        <v>0.032481574488493</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>14</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1359306811.908251</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3886080735.732104</v>
+        <v>3234626404.539716</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1746735395034937</v>
+        <v>0.1620452628541174</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02708659442462637</v>
+        <v>0.0284288399260304</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>12</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1943040356.494488</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1808701158.321473</v>
+        <v>2494247687.967973</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1077455404510991</v>
+        <v>0.1535158157134975</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03415602564147113</v>
+        <v>0.03095637983070122</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>904350561.1270661</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3539354055.56091</v>
+        <v>4053011375.683256</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1154192024946026</v>
+        <v>0.0783568242187698</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03021197244412606</v>
+        <v>0.02170355306039413</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>8</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1769676992.995397</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1750369161.455933</v>
+        <v>2177877109.49008</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1408125470072086</v>
+        <v>0.1784008393788186</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02033633045462179</v>
+        <v>0.0245412789974324</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>875184605.193575</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3238494937.750942</v>
+        <v>3842391860.788734</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09072228560547521</v>
+        <v>0.1332613918229322</v>
       </c>
       <c r="G78" t="n">
-        <v>0.036926767529171</v>
+        <v>0.03883916234581988</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>13</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1619247488.966484</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1401471603.413999</v>
+        <v>1647737160.135734</v>
       </c>
       <c r="F79" t="n">
-        <v>0.118917112575011</v>
+        <v>0.1481277374157256</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03661500713509668</v>
+        <v>0.0325885811764299</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>700735818.4658022</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4957548138.003299</v>
+        <v>3921773521.302317</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1096304728811367</v>
+        <v>0.08656462400213318</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02650005531063167</v>
+        <v>0.02484247962852051</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>8</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2478774115.917611</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3750895775.613468</v>
+        <v>4574439358.149584</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09138234809878057</v>
+        <v>0.1344922240575772</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02513367789307596</v>
+        <v>0.02995086453918359</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>8</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1875447841.580645</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4149346713.475599</v>
+        <v>4346517073.909005</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1455234417431299</v>
+        <v>0.1368578677044736</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02816133122662816</v>
+        <v>0.02175846726158588</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>13</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2074673387.953166</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2050775664.523845</v>
+        <v>2455216600.150898</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1527721657431639</v>
+        <v>0.1575353488612444</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03994099342902166</v>
+        <v>0.03156618516977127</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1025387823.728095</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2030431895.064939</v>
+        <v>1662990469.140646</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1017166737840905</v>
+        <v>0.08024507672777005</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03291888230248194</v>
+        <v>0.0383970967628751</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1015215947.914515</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2545772935.780134</v>
+        <v>3645608959.819672</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1180992755188887</v>
+        <v>0.152799413843772</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05092516611192877</v>
+        <v>0.04247595295065669</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>14</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1272886477.730574</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2619973752.885425</v>
+        <v>2611272045.39155</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1287557820487373</v>
+        <v>0.1540868923122071</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02328213058526594</v>
+        <v>0.02626419675111864</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>2</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1309986990.091057</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1281997308.988393</v>
+        <v>1120726303.684041</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1178022764665645</v>
+        <v>0.1352549237265769</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04248970006593216</v>
+        <v>0.02916025556806199</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>640998730.9489282</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2482384731.436113</v>
+        <v>2622064497.864783</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1703789176307156</v>
+        <v>0.1548173800378071</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02477459373282351</v>
+        <v>0.0293576352070833</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>14</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1241192344.848117</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2113369144.625388</v>
+        <v>2349982468.113095</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1368433258052975</v>
+        <v>0.1386430496249221</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03710985101357131</v>
+        <v>0.03806453864277838</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>13</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1056684675.27955</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1500970566.859665</v>
+        <v>1417074157.019802</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1035208700218838</v>
+        <v>0.09994360804216612</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04342129960890146</v>
+        <v>0.03940738380100979</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>750485262.147252</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1310581857.922456</v>
+        <v>1269427855.502654</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1741944271259862</v>
+        <v>0.182092966521396</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05585545050183829</v>
+        <v>0.04526400487184692</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>655290992.9537718</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1871315124.878217</v>
+        <v>1823385051.801097</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1082406426380531</v>
+        <v>0.1092596033441901</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03733937495470908</v>
+        <v>0.04538513170245075</v>
       </c>
       <c r="H92" t="b">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>10</v>
-      </c>
-      <c r="J92" t="n">
-        <v>935657498.6964591</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4477532209.9668</v>
+        <v>3828405887.712578</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1423248711980456</v>
+        <v>0.1149674726572074</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03882314460363229</v>
+        <v>0.04766309786351364</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>11</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2238766074.571002</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1586903707.436584</v>
+        <v>1802749870.373578</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1227542546527796</v>
+        <v>0.1172406062008946</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04084087398875842</v>
+        <v>0.03890414530499277</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>793451798.117722</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2146576921.8433</v>
+        <v>2533442048.507607</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1007956524188243</v>
+        <v>0.08910971502647001</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03964265047096496</v>
+        <v>0.0388367729389426</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>10</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1073288522.52254</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1894486510.772027</v>
+        <v>2292182509.009668</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1189464569956566</v>
+        <v>0.1308112773292054</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02994270452342256</v>
+        <v>0.03203966703094175</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>947243253.4636508</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5049532695.322556</v>
+        <v>3407458835.687881</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1326576939494298</v>
+        <v>0.1446023143630484</v>
       </c>
       <c r="G97" t="n">
-        <v>0.019876426773909</v>
+        <v>0.02889048931195967</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>12</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2524766488.249261</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3867350892.336379</v>
+        <v>2389324272.78694</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1049200485845314</v>
+        <v>0.112514176487025</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03143947376882741</v>
+        <v>0.030099035221163</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>10</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1933675489.523098</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3062512389.062279</v>
+        <v>3381710471.347562</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1355964255687806</v>
+        <v>0.1236559714419367</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03440679013639197</v>
+        <v>0.0272155227381091</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>12</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1531256184.876525</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4549882666.643639</v>
+        <v>4746568020.553478</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1596013589240031</v>
+        <v>0.1698989632648185</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02641352018532833</v>
+        <v>0.0256467259358679</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>11</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2274941447.722439</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2904033630.656364</v>
+        <v>3270053286.163213</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1950017479229739</v>
+        <v>0.1555645103308071</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04613507224515312</v>
+        <v>0.04741321016133575</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>16</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1452016891.530541</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_38.xlsx
+++ b/output/fit_clients/fit_round_38.xlsx
@@ -486,13 +486,13 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2255477202.345406</v>
+        <v>2414479306.162329</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08254986983515934</v>
+        <v>0.09378748681852012</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0374654529204661</v>
+        <v>0.04303615313709627</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2485952318.750674</v>
+        <v>1860407896.533863</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1316315829213054</v>
+        <v>0.1534101927762454</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04620137182148241</v>
+        <v>0.03581187320273013</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4635026884.629357</v>
+        <v>4125846420.037758</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1577968592191812</v>
+        <v>0.1658809809947121</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03077017453520338</v>
+        <v>0.03049023098733895</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3572100275.511742</v>
+        <v>4211832817.849339</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1035547869559857</v>
+        <v>0.09185293206027252</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04673940347790629</v>
+        <v>0.0312539369365081</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,22 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1912451989.893035</v>
+        <v>1911978636.798742</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1211652553972814</v>
+        <v>0.1013116739484818</v>
       </c>
       <c r="G6" t="n">
-        <v>0.053182552588329</v>
+        <v>0.03636965233286252</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -626,13 +626,13 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2931860828.899193</v>
+        <v>3034429368.193586</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08476763646457991</v>
+        <v>0.07542990548840153</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03226963478874836</v>
+        <v>0.03703732523578578</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3337575562.244058</v>
+        <v>3390966909.445921</v>
       </c>
       <c r="F8" t="n">
-        <v>0.149508323696576</v>
+        <v>0.1733453892851075</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02164771928663512</v>
+        <v>0.02907608852997135</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2146466028.524438</v>
+        <v>1926088090.632417</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1803834220188331</v>
+        <v>0.1207823869159798</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02276703631534198</v>
+        <v>0.02757712481829466</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4940466666.177314</v>
+        <v>5560527164.182701</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2092653188068951</v>
+        <v>0.2021209798340471</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04540706441995782</v>
+        <v>0.04562711413276528</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3196605827.884299</v>
+        <v>3139658784.63772</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1760280477359903</v>
+        <v>0.1897588697678016</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04145989058788266</v>
+        <v>0.03977518346742501</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2913548745.266395</v>
+        <v>2193071406.501768</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1955353605157522</v>
+        <v>0.156421590267689</v>
       </c>
       <c r="G12" t="n">
-        <v>0.033332816541669</v>
+        <v>0.04469385105119105</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3870299141.615674</v>
+        <v>5352888027.319667</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06330276033615624</v>
+        <v>0.06514816605621662</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02478742069465575</v>
+        <v>0.02349197716915351</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3770578061.203588</v>
+        <v>3417858960.086042</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1611623150290538</v>
+        <v>0.1213054964749157</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03786980872908786</v>
+        <v>0.04005658115978535</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1359245884.689037</v>
+        <v>1713987355.248783</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08407440551064921</v>
+        <v>0.08721492717875803</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04647647844502811</v>
+        <v>0.04573324059624058</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2191729373.910956</v>
+        <v>2900703289.948849</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1162167291614315</v>
+        <v>0.08287934686157368</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03822471987891304</v>
+        <v>0.03618429124346907</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -906,16 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4802343598.81682</v>
+        <v>5038213186.625805</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1127581647457873</v>
+        <v>0.1253420905951501</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03778937233956214</v>
+        <v>0.04371035460094853</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3451316965.375282</v>
+        <v>2558937436.757943</v>
       </c>
       <c r="F18" t="n">
-        <v>0.125403451796407</v>
+        <v>0.1180563464161835</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02644918756472667</v>
+        <v>0.02897748560836487</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1111164520.380609</v>
+        <v>1238500006.316242</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1204711348645659</v>
+        <v>0.1273777095662628</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02669375409069473</v>
+        <v>0.01777458535761911</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,22 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2796558069.307032</v>
+        <v>2313213619.926464</v>
       </c>
       <c r="F20" t="n">
-        <v>0.105713673386018</v>
+        <v>0.1438716529544152</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02890012618416997</v>
+        <v>0.02914420436058233</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1951483498.504452</v>
+        <v>2358921850.242968</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07245284859214486</v>
+        <v>0.06456205860574396</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03649624245538597</v>
+        <v>0.03421729136335076</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3580610074.388512</v>
+        <v>3954057154.801125</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09590170765058462</v>
+        <v>0.1238383291021899</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05626478588607554</v>
+        <v>0.03457978145407343</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1187517731.21002</v>
+        <v>1494900417.97691</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1236923177366104</v>
+        <v>0.1491641071370118</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04926834981857994</v>
+        <v>0.03889817706609293</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3246729883.04288</v>
+        <v>3908473666.463869</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1117360832467746</v>
+        <v>0.1220435940275314</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02387386582559756</v>
+        <v>0.02587405686533761</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1260035893.347811</v>
+        <v>1394171140.80053</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1198508142762144</v>
+        <v>0.1201634355151815</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01961037918274184</v>
+        <v>0.02379758744688417</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1261143239.594953</v>
+        <v>883961667.2314415</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09344435869017245</v>
+        <v>0.1010205112588004</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03441316468216374</v>
+        <v>0.02719849832754679</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3468334192.370335</v>
+        <v>4290918585.203126</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09539976685061502</v>
+        <v>0.1039367470491327</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01802352137197985</v>
+        <v>0.02016500818817528</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3460468740.893308</v>
+        <v>3651781549.010799</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1397011785854137</v>
+        <v>0.1200623138576077</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03287990855886201</v>
+        <v>0.03064056760392744</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4924227161.05534</v>
+        <v>4532964631.351903</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1044697265699338</v>
+        <v>0.1239879234366943</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03868070731248803</v>
+        <v>0.03232860582793103</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2218542593.99994</v>
+        <v>2066193621.369295</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1115392855942983</v>
+        <v>0.08687989598622997</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03408373384078671</v>
+        <v>0.03000296058284619</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>929036721.603227</v>
+        <v>1005229145.576529</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07872792882566507</v>
+        <v>0.08074231967751352</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03818857517291546</v>
+        <v>0.03727982825991381</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1252614448.472152</v>
+        <v>1215658881.516963</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1167165014916335</v>
+        <v>0.0833478664839095</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03448333943718625</v>
+        <v>0.02487190116466674</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3035145600.103465</v>
+        <v>2430365169.92007</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1890645832955903</v>
+        <v>0.1262863185062516</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05999411884057486</v>
+        <v>0.03961335925709309</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1220762536.18011</v>
+        <v>1014583317.02182</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09025410621329648</v>
+        <v>0.1096751377754645</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01947117290789191</v>
+        <v>0.0259084716041483</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,22 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>845421704.9064834</v>
+        <v>1052308465.959572</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07357359906053741</v>
+        <v>0.0766054418063597</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0396362206948891</v>
+        <v>0.03634347472792881</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2741606828.619179</v>
+        <v>2642357167.678813</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1479835178846182</v>
+        <v>0.1322823613279227</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02793738601644178</v>
+        <v>0.02633757010139097</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2574663650.693715</v>
+        <v>1888019789.49387</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07921908943195824</v>
+        <v>0.1062157868485772</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03408694196704446</v>
+        <v>0.03311997182871086</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1527009865.398041</v>
+        <v>1934707816.226385</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1213139710335562</v>
+        <v>0.1150182698074832</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03961690430550027</v>
+        <v>0.03288168742252646</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,22 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1692521097.592468</v>
+        <v>1624241352.650172</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1768429407144683</v>
+        <v>0.1329756750721738</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02999193471450782</v>
+        <v>0.03182221012875556</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1550,13 +1550,13 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1813643950.25264</v>
+        <v>1648491306.041254</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1000191213055531</v>
+        <v>0.1307202481112213</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0501492100767094</v>
+        <v>0.05620430953590407</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1974342260.047083</v>
+        <v>2512165325.998743</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1302309048563794</v>
+        <v>0.1006009410222667</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04513078044161852</v>
+        <v>0.04348735664030413</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3503498835.595553</v>
+        <v>3539287904.424822</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0882238663920988</v>
+        <v>0.09763443475572901</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03211073253164731</v>
+        <v>0.02857899030123309</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2768182851.210109</v>
+        <v>2396406971.035647</v>
       </c>
       <c r="F43" t="n">
-        <v>0.184559964171366</v>
+        <v>0.1535613713719628</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02282756755536315</v>
+        <v>0.01594236951748984</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1503346087.987482</v>
+        <v>1814787777.789214</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08765846208892863</v>
+        <v>0.07692448347931947</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02690905906178436</v>
+        <v>0.02525599035365953</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1844039536.31104</v>
+        <v>2176465495.838787</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1298898315485443</v>
+        <v>0.133527832127504</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05279586442238213</v>
+        <v>0.03959317150907622</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5524305884.877751</v>
+        <v>4102431822.646347</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1780007880308777</v>
+        <v>0.111742730219008</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05726448819531648</v>
+        <v>0.03719673763250292</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,19 +1740,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3893236172.176789</v>
+        <v>3440632210.340954</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1293590858990634</v>
+        <v>0.1349636764026957</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03905424136627353</v>
+        <v>0.04334920837687604</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3782138436.966103</v>
+        <v>4456361392.225762</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1036795720050637</v>
+        <v>0.09802815263059175</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02726043340062515</v>
+        <v>0.03117200620920518</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1463100024.867666</v>
+        <v>1368057369.555726</v>
       </c>
       <c r="F49" t="n">
-        <v>0.153813523838315</v>
+        <v>0.1192898536606561</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03602039551289024</v>
+        <v>0.02755587014273797</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3553435405.708451</v>
+        <v>2560402604.328182</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1628051813670464</v>
+        <v>0.1681853527782646</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04489122458539849</v>
+        <v>0.04853730198372429</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,22 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>959034561.2284248</v>
+        <v>1170046204.920042</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1461209292088677</v>
+        <v>0.1625270292813449</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04267535240659875</v>
+        <v>0.05087499040160032</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3512309804.269302</v>
+        <v>3751938588.214329</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1219380183471589</v>
+        <v>0.09519019666330321</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04268744129745366</v>
+        <v>0.04037423872809727</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3181203960.837417</v>
+        <v>2312740075.525287</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1463533683918758</v>
+        <v>0.1905951929912371</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02404470430666968</v>
+        <v>0.0287594001912904</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3627989936.117373</v>
+        <v>3041330359.791765</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1449700572138281</v>
+        <v>0.1090316867102698</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04468974613178694</v>
+        <v>0.05203585202695339</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,19 +1964,19 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3104599206.534762</v>
+        <v>3355304631.555142</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2075831379338862</v>
+        <v>0.2133697611933865</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03261417476853693</v>
+        <v>0.0218977014943196</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1405712270.11061</v>
+        <v>1249678393.596961</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1331611705630005</v>
+        <v>0.1071379299912085</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05553455885133018</v>
+        <v>0.05099486698928605</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4034178744.858725</v>
+        <v>3598468567.491367</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1267048055494636</v>
+        <v>0.1762951272911082</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02303727887512766</v>
+        <v>0.02401746281646696</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1762083015.070676</v>
+        <v>1901313188.674979</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1738735326642937</v>
+        <v>0.1694308068208046</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0281860356836189</v>
+        <v>0.0277997836618698</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,22 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5205368954.159616</v>
+        <v>5292955491.932022</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08058904392636783</v>
+        <v>0.1222250159044951</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04922060679868931</v>
+        <v>0.03143761208795043</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3690841074.153963</v>
+        <v>3605313919.641862</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1305629477500295</v>
+        <v>0.1777149065520222</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02759429041182667</v>
+        <v>0.02716694278030056</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2457769322.971362</v>
+        <v>3310670099.902753</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1552675184493337</v>
+        <v>0.1685422757288612</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02666510077763621</v>
+        <v>0.02093523158389777</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1443017148.573231</v>
+        <v>1662014391.338732</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1319104603056323</v>
+        <v>0.1570932465880112</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04531393665314433</v>
+        <v>0.03274895325925846</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,13 +2194,13 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4374380538.161725</v>
+        <v>5345378319.974831</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1037448792951696</v>
+        <v>0.07502842822439545</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03375067230505825</v>
+        <v>0.04066840816754248</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4630376452.944156</v>
+        <v>4439417182.269853</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1499341808094575</v>
+        <v>0.1465267061404701</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03227512550846471</v>
+        <v>0.02528017361174018</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5597793710.41176</v>
+        <v>4039448989.247455</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1058495068257315</v>
+        <v>0.1196549439280294</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02429397009453907</v>
+        <v>0.02078273963066393</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4841539774.695102</v>
+        <v>5290800495.261074</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1256451509330899</v>
+        <v>0.1237119364821858</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03692189215884394</v>
+        <v>0.03218156245564963</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2926319795.098353</v>
+        <v>3183528118.719391</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06954197470971737</v>
+        <v>0.08462589402746817</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03877720240382522</v>
+        <v>0.03659045080053391</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5575872461.562296</v>
+        <v>5673456071.286663</v>
       </c>
       <c r="F68" t="n">
-        <v>0.13267042850497</v>
+        <v>0.1159696819920167</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04735805621857355</v>
+        <v>0.0324315924303861</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2479616200.881</v>
+        <v>2080706527.51612</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1655184725457839</v>
+        <v>0.1475631104302595</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05336496971916484</v>
+        <v>0.03634423660583667</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2390,16 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3153135421.046882</v>
+        <v>2506056206.332193</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08289153022790827</v>
+        <v>0.06937894921821434</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04756714828906763</v>
+        <v>0.03567712220116929</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5516610664.915991</v>
+        <v>3553304727.509928</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1161621969497959</v>
+        <v>0.1567933523973642</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03399064435930987</v>
+        <v>0.03222685874685207</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1875780498.760091</v>
+        <v>2084556188.637032</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09282423082136537</v>
+        <v>0.07693716558510327</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04415814012167293</v>
+        <v>0.05299589308878497</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2279058495.7807</v>
+        <v>2395809257.653815</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07293969066943773</v>
+        <v>0.0865630214871477</v>
       </c>
       <c r="G73" t="n">
-        <v>0.032481574488493</v>
+        <v>0.03618651312962848</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3234626404.539716</v>
+        <v>3764844122.527596</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1620452628541174</v>
+        <v>0.1850317001945086</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0284288399260304</v>
+        <v>0.02193005682720578</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2494247687.967973</v>
+        <v>2359121145.715511</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1535158157134975</v>
+        <v>0.1032434742104663</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03095637983070122</v>
+        <v>0.03107753921997378</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4053011375.683256</v>
+        <v>4087290481.930192</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0783568242187698</v>
+        <v>0.1021610868106527</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02170355306039413</v>
+        <v>0.02560354878795534</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2177877109.49008</v>
+        <v>1514974161.816623</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1784008393788186</v>
+        <v>0.1361270458604416</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0245412789974324</v>
+        <v>0.02003055521089527</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3842391860.788734</v>
+        <v>4629804339.591992</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1332613918229322</v>
+        <v>0.1144788174161082</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03883916234581988</v>
+        <v>0.04721854295495758</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1647737160.135734</v>
+        <v>1538577255.730774</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1481277374157256</v>
+        <v>0.1308010365127039</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0325885811764299</v>
+        <v>0.03194766966524863</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,13 +2670,13 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3921773521.302317</v>
+        <v>5480835467.097882</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08656462400213318</v>
+        <v>0.09253688659538571</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02484247962852051</v>
+        <v>0.03028839910269912</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4574439358.149584</v>
+        <v>5152987698.844655</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1344922240575772</v>
+        <v>0.09848258634415444</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02995086453918359</v>
+        <v>0.03091247906897609</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4346517073.909005</v>
+        <v>4420750196.384869</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1368578677044736</v>
+        <v>0.1989350952607589</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02175846726158588</v>
+        <v>0.02817625017219818</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2455216600.150898</v>
+        <v>1879828455.896132</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1575353488612444</v>
+        <v>0.1095816889485853</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03156618516977127</v>
+        <v>0.04153405098479956</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1662990469.140646</v>
+        <v>2205288900.657507</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08024507672777005</v>
+        <v>0.1005867489300339</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0383970967628751</v>
+        <v>0.03428957155961143</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3645608959.819672</v>
+        <v>3284207861.971369</v>
       </c>
       <c r="F85" t="n">
-        <v>0.152799413843772</v>
+        <v>0.1245633838509911</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04247595295065669</v>
+        <v>0.05043560584096148</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2611272045.39155</v>
+        <v>1716268915.383214</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1540868923122071</v>
+        <v>0.1351784290321611</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02626419675111864</v>
+        <v>0.02375517950596469</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1120726303.684041</v>
+        <v>1185925277.583633</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1352549237265769</v>
+        <v>0.1547021848691261</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02916025556806199</v>
+        <v>0.03827118716339846</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2622064497.864783</v>
+        <v>2344203548.771564</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1548173800378071</v>
+        <v>0.1115418940919566</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0293576352070833</v>
+        <v>0.02451697940823081</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2349982468.113095</v>
+        <v>3295184747.769113</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1386430496249221</v>
+        <v>0.1552863118510097</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03806453864277838</v>
+        <v>0.03815907717469427</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1417074157.019802</v>
+        <v>1826463929.753125</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09994360804216612</v>
+        <v>0.1151955038486794</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03940738380100979</v>
+        <v>0.0375312304125552</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1269427855.502654</v>
+        <v>1556226982.266468</v>
       </c>
       <c r="F91" t="n">
-        <v>0.182092966521396</v>
+        <v>0.166094698484168</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04526400487184692</v>
+        <v>0.04690158426615535</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3006,16 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1823385051.801097</v>
+        <v>2249444470.671276</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1092596033441901</v>
+        <v>0.1003756903610498</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04538513170245075</v>
+        <v>0.04117809917029969</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3828405887.712578</v>
+        <v>3982998548.832453</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1149674726572074</v>
+        <v>0.1068982869917344</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04766309786351364</v>
+        <v>0.04824412654324164</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1802749870.373578</v>
+        <v>2139119211.7796</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1172406062008946</v>
+        <v>0.1627760080668533</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03890414530499277</v>
+        <v>0.02914275408698415</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2533442048.507607</v>
+        <v>3261745099.255976</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08910971502647001</v>
+        <v>0.121332236547006</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0388367729389426</v>
+        <v>0.05237809963484171</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2292182509.009668</v>
+        <v>2261985956.843638</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1308112773292054</v>
+        <v>0.1292174727512956</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03203966703094175</v>
+        <v>0.04740844342837297</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3407458835.687881</v>
+        <v>3944226443.931476</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1446023143630484</v>
+        <v>0.1443918918183592</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02889048931195967</v>
+        <v>0.02751079315287201</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2389324272.78694</v>
+        <v>2874565954.221204</v>
       </c>
       <c r="F98" t="n">
-        <v>0.112514176487025</v>
+        <v>0.1272545771002614</v>
       </c>
       <c r="G98" t="n">
-        <v>0.030099035221163</v>
+        <v>0.03043527893714874</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3381710471.347562</v>
+        <v>3424314229.766472</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1236559714419367</v>
+        <v>0.1040381587653237</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0272155227381091</v>
+        <v>0.02517673609513403</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4746568020.553478</v>
+        <v>3059723332.934779</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1698989632648185</v>
+        <v>0.1494635878407004</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0256467259358679</v>
+        <v>0.02321956043667565</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3270053286.163213</v>
+        <v>3214440404.99915</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1555645103308071</v>
+        <v>0.188102259084537</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04741321016133575</v>
+        <v>0.0371782120198337</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_38.xlsx
+++ b/output/fit_clients/fit_round_38.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2414479306.162329</v>
+        <v>2014922155.645324</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09378748681852012</v>
+        <v>0.1041223532290574</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04303615313709627</v>
+        <v>0.04077353135318907</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1860407896.533863</v>
+        <v>2267098735.865944</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1534101927762454</v>
+        <v>0.1531613433729903</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03581187320273013</v>
+        <v>0.04241108661195848</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4125846420.037758</v>
+        <v>5219325576.012063</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1658809809947121</v>
+        <v>0.1280103964970374</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03049023098733895</v>
+        <v>0.0298377685782096</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>27</v>
+      </c>
+      <c r="J4" t="n">
+        <v>38</v>
+      </c>
+      <c r="K4" t="n">
+        <v>215.1132831697024</v>
       </c>
     </row>
     <row r="5">
@@ -570,16 +608,25 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4211832817.849339</v>
+        <v>3860680143.403184</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09185293206027252</v>
+        <v>0.1084521239877565</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0312539369365081</v>
+        <v>0.03075900798532417</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>18</v>
+      </c>
+      <c r="J5" t="n">
+        <v>37</v>
+      </c>
+      <c r="K5" t="n">
+        <v>165.6843681660631</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +639,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1911978636.798742</v>
+        <v>2524176718.89511</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1013116739484818</v>
+        <v>0.1048778898895487</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03636965233286252</v>
+        <v>0.04173538804842596</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +674,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3034429368.193586</v>
+        <v>2619981084.033482</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07542990548840153</v>
+        <v>0.07112239846475257</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03703732523578578</v>
+        <v>0.03207961166897869</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,17 +715,24 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3390966909.445921</v>
+        <v>3173002548.57841</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1733453892851075</v>
+        <v>0.1971330528435092</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02907608852997135</v>
+        <v>0.03237047100314203</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>8</v>
+      </c>
+      <c r="J8" t="n">
+        <v>29</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1926088090.632417</v>
+        <v>1934298944.327307</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1207823869159798</v>
+        <v>0.1222596559942448</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02757712481829466</v>
+        <v>0.03688450050914931</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5560527164.182701</v>
+        <v>5431142628.48815</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2021209798340471</v>
+        <v>0.216615418414373</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04562711413276528</v>
+        <v>0.04347204597522634</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>35</v>
+      </c>
+      <c r="J10" t="n">
+        <v>38</v>
+      </c>
+      <c r="K10" t="n">
+        <v>238.0680825348039</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +816,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3139658784.63772</v>
+        <v>3099863301.603005</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1897588697678016</v>
+        <v>0.1476568150124245</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03977518346742501</v>
+        <v>0.03180782172758702</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>18</v>
+      </c>
+      <c r="J11" t="n">
+        <v>37</v>
+      </c>
+      <c r="K11" t="n">
+        <v>109.6697566503394</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +853,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2193071406.501768</v>
+        <v>2779837804.860253</v>
       </c>
       <c r="F12" t="n">
-        <v>0.156421590267689</v>
+        <v>0.1942949987657567</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04469385105119105</v>
+        <v>0.04779964716432242</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +888,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5352888027.319667</v>
+        <v>3281360956.912791</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06514816605621662</v>
+        <v>0.09660312474365206</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02349197716915351</v>
+        <v>0.02167825306874002</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>18</v>
+      </c>
+      <c r="J13" t="n">
+        <v>37</v>
+      </c>
+      <c r="K13" t="n">
+        <v>113.1416528312121</v>
       </c>
     </row>
     <row r="14">
@@ -822,17 +931,24 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3417858960.086042</v>
+        <v>3014005435.527906</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1213054964749157</v>
+        <v>0.1491311709914737</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04005658115978535</v>
+        <v>0.04072790819171061</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>7</v>
+      </c>
+      <c r="J14" t="n">
+        <v>36</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +960,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1713987355.248783</v>
+        <v>1283691409.775134</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08721492717875803</v>
+        <v>0.06757366470301401</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04573324059624058</v>
+        <v>0.04074594267316859</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +995,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2900703289.948849</v>
+        <v>1833750113.099976</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08287934686157368</v>
+        <v>0.07138217467701814</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03618429124346907</v>
+        <v>0.04464556168264716</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,17 +1036,24 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5038213186.625805</v>
+        <v>4643006919.38107</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1253420905951501</v>
+        <v>0.1469506348844929</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04371035460094853</v>
+        <v>0.04419986151861365</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>18</v>
+      </c>
+      <c r="J17" t="n">
+        <v>38</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -934,17 +1071,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2558937436.757943</v>
+        <v>2587655021.828656</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1180563464161835</v>
+        <v>0.1829870364906462</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02897748560836487</v>
+        <v>0.02797664700762923</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>7</v>
+      </c>
+      <c r="J18" t="n">
+        <v>24</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1100,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1238500006.316242</v>
+        <v>1052386099.396953</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1273777095662628</v>
+        <v>0.1539086221448545</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01777458535761911</v>
+        <v>0.02369466297110561</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1141,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2313213619.926464</v>
+        <v>2232985529.813227</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1438716529544152</v>
+        <v>0.155881967969278</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02914420436058233</v>
+        <v>0.02977470304869965</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1170,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2358921850.242968</v>
+        <v>1704160587.174132</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06456205860574396</v>
+        <v>0.08097770231981169</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03421729136335076</v>
+        <v>0.03395178597233196</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1205,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3954057154.801125</v>
+        <v>2836335916.894851</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1238383291021899</v>
+        <v>0.1112320230412859</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03457978145407343</v>
+        <v>0.03605668506757588</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>10</v>
+      </c>
+      <c r="J22" t="n">
+        <v>34</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1246,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1494900417.97691</v>
+        <v>1206555630.205308</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1491641071370118</v>
+        <v>0.1306302447819621</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03889817706609293</v>
+        <v>0.05126754009457234</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1275,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3908473666.463869</v>
+        <v>3245826925.028527</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1220435940275314</v>
+        <v>0.1041757151168494</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02587405686533761</v>
+        <v>0.02560625409348072</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>9</v>
+      </c>
+      <c r="J24" t="n">
+        <v>30</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1310,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1394171140.80053</v>
+        <v>1077282096.379977</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1201634355151815</v>
+        <v>0.08504523891446363</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02379758744688417</v>
+        <v>0.02070931509878071</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1345,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>883961667.2314415</v>
+        <v>1179667876.998043</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1010205112588004</v>
+        <v>0.1149082775585985</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02719849832754679</v>
+        <v>0.03446056230703005</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1380,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4290918585.203126</v>
+        <v>3945931880.100843</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1039367470491327</v>
+        <v>0.1473586515664418</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02016500818817528</v>
+        <v>0.01999734117008211</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>15</v>
+      </c>
+      <c r="J27" t="n">
+        <v>38</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1415,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3651781549.010799</v>
+        <v>2426540877.343268</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1200623138576077</v>
+        <v>0.1000970907077546</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03064056760392744</v>
+        <v>0.04685073796911585</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>10</v>
+      </c>
+      <c r="J28" t="n">
+        <v>36</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1450,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4532964631.351903</v>
+        <v>4535225023.236794</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1239879234366943</v>
+        <v>0.1364049074633222</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03232860582793103</v>
+        <v>0.04649285742252247</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>34</v>
+      </c>
+      <c r="J29" t="n">
+        <v>38</v>
+      </c>
+      <c r="K29" t="n">
+        <v>241.5373575313482</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2066193621.369295</v>
+        <v>1503268961.836749</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08687989598622997</v>
+        <v>0.08653072894130474</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03000296058284619</v>
+        <v>0.02536103073078845</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1522,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1005229145.576529</v>
+        <v>1418125543.608898</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08074231967751352</v>
+        <v>0.09259026679315778</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03727982825991381</v>
+        <v>0.03306074971902716</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1215658881.516963</v>
+        <v>1702380949.033642</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0833478664839095</v>
+        <v>0.09497834765439363</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02487190116466674</v>
+        <v>0.03136969454562643</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1598,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2430365169.92007</v>
+        <v>2266873674.36003</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1262863185062516</v>
+        <v>0.177931764141735</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03961335925709309</v>
+        <v>0.04820372345024915</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1014583317.02182</v>
+        <v>1140368931.8165</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1096751377754645</v>
+        <v>0.1167927240083981</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0259084716041483</v>
+        <v>0.02453901893007705</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1052308465.959572</v>
+        <v>1293034133.512907</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0766054418063597</v>
+        <v>0.1092146097033821</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03634347472792881</v>
+        <v>0.03807099941535304</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1697,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2642357167.678813</v>
+        <v>2471793830.156067</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1322823613279227</v>
+        <v>0.117682678752074</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02633757010139097</v>
+        <v>0.02545306526857509</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1888019789.49387</v>
+        <v>2002669730.345422</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1062157868485772</v>
+        <v>0.1106066347368528</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03311997182871086</v>
+        <v>0.03333806705572002</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1773,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1934707816.226385</v>
+        <v>1632479745.894469</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1150182698074832</v>
+        <v>0.09535613505078634</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03288168742252646</v>
+        <v>0.03705019495098477</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1624241352.650172</v>
+        <v>1640479434.523287</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1329756750721738</v>
+        <v>0.154318609324459</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03182221012875556</v>
+        <v>0.02669444032824093</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1648491306.041254</v>
+        <v>1639191681.529917</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1307202481112213</v>
+        <v>0.1120657747984784</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05620430953590407</v>
+        <v>0.04416372204540379</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1872,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2512165325.998743</v>
+        <v>2423547408.687372</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1006009410222667</v>
+        <v>0.1393304710916499</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04348735664030413</v>
+        <v>0.02924562503533949</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1907,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3539287904.424822</v>
+        <v>3855691319.76694</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09763443475572901</v>
+        <v>0.09134353230574027</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02857899030123309</v>
+        <v>0.04129536720322983</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>12</v>
+      </c>
+      <c r="J42" t="n">
+        <v>38</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1942,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2396406971.035647</v>
+        <v>1989647417.663513</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1535613713719628</v>
+        <v>0.1593681342917442</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01594236951748984</v>
+        <v>0.02250851423360264</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1983,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1814787777.789214</v>
+        <v>1446643260.67602</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07692448347931947</v>
+        <v>0.07481642920310494</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02525599035365953</v>
+        <v>0.02760971934336424</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2012,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2176465495.838787</v>
+        <v>1890303275.41018</v>
       </c>
       <c r="F45" t="n">
-        <v>0.133527832127504</v>
+        <v>0.1941978163603321</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03959317150907622</v>
+        <v>0.05100573012016905</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2047,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4102431822.646347</v>
+        <v>5678593855.540549</v>
       </c>
       <c r="F46" t="n">
-        <v>0.111742730219008</v>
+        <v>0.1650587465558397</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03719673763250292</v>
+        <v>0.03888991531454625</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>23</v>
+      </c>
+      <c r="J46" t="n">
+        <v>38</v>
+      </c>
+      <c r="K46" t="n">
+        <v>213.8931186892839</v>
       </c>
     </row>
     <row r="47">
@@ -1746,17 +2090,24 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3440632210.340954</v>
+        <v>3923507516.187313</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1349636764026957</v>
+        <v>0.1582768974253679</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04334920837687604</v>
+        <v>0.05819147241971651</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>16</v>
+      </c>
+      <c r="J47" t="n">
+        <v>38</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2119,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4456361392.225762</v>
+        <v>4519911534.692149</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09802815263059175</v>
+        <v>0.0990774990161144</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03117200620920518</v>
+        <v>0.02786571381682225</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>12</v>
+      </c>
+      <c r="J48" t="n">
+        <v>38</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2154,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1368057369.555726</v>
+        <v>1375362440.911473</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1192898536606561</v>
+        <v>0.135513315051821</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02755587014273797</v>
+        <v>0.03788921772050878</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2189,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2560402604.328182</v>
+        <v>4133798102.704529</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1681853527782646</v>
+        <v>0.1107360938447305</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04853730198372429</v>
+        <v>0.04239625943208086</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>14</v>
+      </c>
+      <c r="J50" t="n">
+        <v>38</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2224,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1170046204.920042</v>
+        <v>1365774416.281118</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1625270292813449</v>
+        <v>0.1473674730869614</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05087499040160032</v>
+        <v>0.04440093287233789</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2259,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3751938588.214329</v>
+        <v>3707007294.820444</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09519019666330321</v>
+        <v>0.1113250725096031</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04037423872809727</v>
+        <v>0.04553675657446193</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>30</v>
+      </c>
+      <c r="J52" t="n">
+        <v>37</v>
+      </c>
+      <c r="K52" t="n">
+        <v>156.7655555985539</v>
       </c>
     </row>
     <row r="53">
@@ -1914,17 +2302,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2312740075.525287</v>
+        <v>2319215261.10575</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1905951929912371</v>
+        <v>0.1822001566243662</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0287594001912904</v>
+        <v>0.035218665212145</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>6</v>
+      </c>
+      <c r="J53" t="n">
+        <v>36</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2331,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3041330359.791765</v>
+        <v>4174252264.110753</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1090316867102698</v>
+        <v>0.1401118049352267</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05203585202695339</v>
+        <v>0.04233136229786841</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>16</v>
+      </c>
+      <c r="J54" t="n">
+        <v>38</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1970,16 +2372,25 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3355304631.555142</v>
+        <v>4817133786.910729</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2133697611933865</v>
+        <v>0.1486790314984512</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0218977014943196</v>
+        <v>0.0259549715808911</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>18</v>
+      </c>
+      <c r="J55" t="n">
+        <v>37</v>
+      </c>
+      <c r="K55" t="n">
+        <v>183.9329168662021</v>
       </c>
     </row>
     <row r="56">
@@ -1998,17 +2409,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1249678393.596961</v>
+        <v>1734450308.224389</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1071379299912085</v>
+        <v>0.1612847759529684</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05099486698928605</v>
+        <v>0.03700419482615869</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2438,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3598468567.491367</v>
+        <v>3177631522.66775</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1762951272911082</v>
+        <v>0.1711896596190679</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02401746281646696</v>
+        <v>0.02713961954967902</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>15</v>
+      </c>
+      <c r="J57" t="n">
+        <v>37</v>
+      </c>
+      <c r="K57" t="n">
+        <v>100.8493534961218</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2475,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1901313188.674979</v>
+        <v>1597793117.729105</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1694308068208046</v>
+        <v>0.2008420305854698</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0277997836618698</v>
+        <v>0.03896261777393444</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2510,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5292955491.932022</v>
+        <v>4542917685.206845</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1222250159044951</v>
+        <v>0.08915273851607997</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03143761208795043</v>
+        <v>0.03602168096084372</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>18</v>
+      </c>
+      <c r="J59" t="n">
+        <v>37</v>
+      </c>
+      <c r="K59" t="n">
+        <v>186.2723901375232</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2547,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3605313919.641862</v>
+        <v>3034725410.307984</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1777149065520222</v>
+        <v>0.2043839786435134</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02716694278030056</v>
+        <v>0.03007228778982875</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>5</v>
+      </c>
+      <c r="J60" t="n">
+        <v>30</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3310670099.902753</v>
+        <v>3400005946.373868</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1685422757288612</v>
+        <v>0.1141750594704241</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02093523158389777</v>
+        <v>0.0219386105843082</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1662014391.338732</v>
+        <v>2097173440.883676</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1570932465880112</v>
+        <v>0.1353553280692494</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03274895325925846</v>
+        <v>0.04769420579373322</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2652,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5345378319.974831</v>
+        <v>5463853144.186913</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07502842822439545</v>
+        <v>0.1011660760931984</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04066840816754248</v>
+        <v>0.03927900234713937</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>18</v>
+      </c>
+      <c r="J63" t="n">
+        <v>38</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,22 +2687,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4439417182.269853</v>
+        <v>4861436660.989301</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1465267061404701</v>
+        <v>0.1275603235030776</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02528017361174018</v>
+        <v>0.03282955628449449</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>19</v>
+      </c>
+      <c r="J64" t="n">
+        <v>37</v>
+      </c>
+      <c r="K64" t="n">
+        <v>200.3533135427468</v>
       </c>
     </row>
     <row r="65">
@@ -2244,23 +2724,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4039448989.247455</v>
+        <v>3874637667.199915</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1196549439280294</v>
+        <v>0.1240010328853769</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02078273963066393</v>
+        <v>0.02830765406690868</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>30</v>
+      </c>
+      <c r="J65" t="n">
+        <v>38</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,22 +2759,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5290800495.261074</v>
+        <v>4322339053.224446</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1237119364821858</v>
+        <v>0.147183445114868</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03218156245564963</v>
+        <v>0.04191079548261267</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>19</v>
+      </c>
+      <c r="J66" t="n">
+        <v>37</v>
+      </c>
+      <c r="K66" t="n">
+        <v>182.5634085212124</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3183528118.719391</v>
+        <v>3022063336.449772</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08462589402746817</v>
+        <v>0.07404566244656555</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03659045080053391</v>
+        <v>0.03855558801218715</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,16 +2837,25 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5673456071.286663</v>
+        <v>5773629938.994251</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1159696819920167</v>
+        <v>0.1216102001104035</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0324315924303861</v>
+        <v>0.03834438624622773</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>19</v>
+      </c>
+      <c r="J68" t="n">
+        <v>37</v>
+      </c>
+      <c r="K68" t="n">
+        <v>201.6135069145263</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2080706527.51612</v>
+        <v>1747434456.413559</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1475631104302595</v>
+        <v>0.1543137510297707</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03634423660583667</v>
+        <v>0.05115173997195776</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2909,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2506056206.332193</v>
+        <v>3437394178.756926</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06937894921821434</v>
+        <v>0.09054687315759442</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03567712220116929</v>
+        <v>0.03949741896523101</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>4</v>
+      </c>
+      <c r="J70" t="n">
+        <v>35</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,17 +2944,24 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3553304727.509928</v>
+        <v>4533892557.586172</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1567933523973642</v>
+        <v>0.18486469767847</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03222685874685207</v>
+        <v>0.03149751471122048</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>31</v>
+      </c>
+      <c r="J71" t="n">
+        <v>38</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2973,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2084556188.637032</v>
+        <v>1684297759.911296</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07693716558510327</v>
+        <v>0.0999122370706267</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05299589308878497</v>
+        <v>0.03986660622755894</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3008,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2395809257.653815</v>
+        <v>3459183542.535145</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0865630214871477</v>
+        <v>0.1073603179269331</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03618651312962848</v>
+        <v>0.04512004933283409</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>2</v>
+      </c>
+      <c r="J73" t="n">
+        <v>30</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3043,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3764844122.527596</v>
+        <v>3142663646.499883</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1850317001945086</v>
+        <v>0.1632280933491257</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02193005682720578</v>
+        <v>0.02867819531604309</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>11</v>
+      </c>
+      <c r="J74" t="n">
+        <v>37</v>
+      </c>
+      <c r="K74" t="n">
+        <v>104.2862663499664</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2359121145.715511</v>
+        <v>2484778732.366873</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1032434742104663</v>
+        <v>0.1155805688619217</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03107753921997378</v>
+        <v>0.03220278587639026</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3115,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4087290481.930192</v>
+        <v>5229279947.867731</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1021610868106527</v>
+        <v>0.0799465709397211</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02560354878795534</v>
+        <v>0.02596069777231583</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>18</v>
+      </c>
+      <c r="J76" t="n">
+        <v>37</v>
+      </c>
+      <c r="K76" t="n">
+        <v>170.2488026393196</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1514974161.816623</v>
+        <v>2237107114.434577</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1361270458604416</v>
+        <v>0.1537509956113509</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02003055521089527</v>
+        <v>0.02782736171955992</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3187,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4629804339.591992</v>
+        <v>4630439023.494205</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1144788174161082</v>
+        <v>0.09005733046806158</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04721854295495758</v>
+        <v>0.05143527402402708</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>16</v>
+      </c>
+      <c r="J78" t="n">
+        <v>37</v>
+      </c>
+      <c r="K78" t="n">
+        <v>213.024343097466</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1538577255.730774</v>
+        <v>1888285449.121029</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1308010365127039</v>
+        <v>0.1288301289631286</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03194766966524863</v>
+        <v>0.02568519173455892</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3259,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5480835467.097882</v>
+        <v>4457712463.972484</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09253688659538571</v>
+        <v>0.09625195801243414</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03028839910269912</v>
+        <v>0.0371484025851081</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>18</v>
+      </c>
+      <c r="J80" t="n">
+        <v>38</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3294,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5152987698.844655</v>
+        <v>5212848155.835235</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09848258634415444</v>
+        <v>0.1191875615308661</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03091247906897609</v>
+        <v>0.02520128687723901</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>16</v>
+      </c>
+      <c r="J81" t="n">
+        <v>38</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2726,16 +3335,25 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4420750196.384869</v>
+        <v>4485481269.265459</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1989350952607589</v>
+        <v>0.1970063161186544</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02817625017219818</v>
+        <v>0.02522873973503693</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>21</v>
+      </c>
+      <c r="J82" t="n">
+        <v>38</v>
+      </c>
+      <c r="K82" t="n">
+        <v>213.6233803855893</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1879828455.896132</v>
+        <v>2168585517.339685</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1095816889485853</v>
+        <v>0.1017740377479771</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04153405098479956</v>
+        <v>0.03605817783763463</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2205288900.657507</v>
+        <v>1761320657.874666</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1005867489300339</v>
+        <v>0.07815346810058092</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03428957155961143</v>
+        <v>0.03955022427393736</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,22 +3436,31 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3284207861.971369</v>
+        <v>3415055385.242323</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1245633838509911</v>
+        <v>0.1461380909039815</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05043560584096148</v>
+        <v>0.05618015391066526</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>7</v>
+      </c>
+      <c r="J85" t="n">
+        <v>37</v>
+      </c>
+      <c r="K85" t="n">
+        <v>130.474575767779</v>
       </c>
     </row>
     <row r="86">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1716268915.383214</v>
+        <v>1804930687.185954</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1351784290321611</v>
+        <v>0.1581629544655694</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02375517950596469</v>
+        <v>0.02180491002272213</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1185925277.583633</v>
+        <v>1271742068.5778</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1547021848691261</v>
+        <v>0.1480136587911971</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03827118716339846</v>
+        <v>0.02865426898207715</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3543,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2344203548.771564</v>
+        <v>3602810765.669299</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1115418940919566</v>
+        <v>0.1120980077105597</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02451697940823081</v>
+        <v>0.0385771338134919</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>3</v>
+      </c>
+      <c r="J88" t="n">
+        <v>38</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3584,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3295184747.769113</v>
+        <v>3440341941.196359</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1552863118510097</v>
+        <v>0.1205119518619392</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03815907717469427</v>
+        <v>0.02744942399166459</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>4</v>
+      </c>
+      <c r="J89" t="n">
+        <v>32</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1826463929.753125</v>
+        <v>2115742802.680753</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1151955038486794</v>
+        <v>0.09716435005025792</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0375312304125552</v>
+        <v>0.03982100623209819</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1556226982.266468</v>
+        <v>1646088818.099551</v>
       </c>
       <c r="F91" t="n">
-        <v>0.166094698484168</v>
+        <v>0.190769421433964</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04690158426615535</v>
+        <v>0.04154948503596242</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2249444470.671276</v>
+        <v>2003410970.51322</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1003756903610498</v>
+        <v>0.08529104031638392</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04117809917029969</v>
+        <v>0.04059569910022003</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3718,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3982998548.832453</v>
+        <v>3182792624.644226</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1068982869917344</v>
+        <v>0.09540158285484762</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04824412654324164</v>
+        <v>0.05498077604775158</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>17</v>
+      </c>
+      <c r="J93" t="n">
+        <v>37</v>
+      </c>
+      <c r="K93" t="n">
+        <v>99.50398242626783</v>
       </c>
     </row>
     <row r="94">
@@ -3062,17 +3761,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2139119211.7796</v>
+        <v>2247020348.29006</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1627760080668533</v>
+        <v>0.1531100559771372</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02914275408698415</v>
+        <v>0.04181716804796836</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3790,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3261745099.255976</v>
+        <v>3010455899.270971</v>
       </c>
       <c r="F95" t="n">
-        <v>0.121332236547006</v>
+        <v>0.1276562721741302</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05237809963484171</v>
+        <v>0.03788120304432852</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3825,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2261985956.843638</v>
+        <v>1847604017.833073</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1292174727512956</v>
+        <v>0.1007672077598537</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04740844342837297</v>
+        <v>0.04004902711008819</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3860,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3944226443.931476</v>
+        <v>5346011426.725027</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1443918918183592</v>
+        <v>0.1631547300985691</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02751079315287201</v>
+        <v>0.02133942517113324</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>18</v>
+      </c>
+      <c r="J97" t="n">
+        <v>38</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2874565954.221204</v>
+        <v>3334060872.833989</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1272545771002614</v>
+        <v>0.09682189859532069</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03043527893714874</v>
+        <v>0.03183633252750758</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>9</v>
+      </c>
+      <c r="J98" t="n">
+        <v>34</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3936,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3424314229.766472</v>
+        <v>3404675128.047463</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1040381587653237</v>
+        <v>0.1376649425355184</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02517673609513403</v>
+        <v>0.0259330353071233</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3059723332.934779</v>
+        <v>3882925921.681242</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1494635878407004</v>
+        <v>0.1691671045820362</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02321956043667565</v>
+        <v>0.02484787890603605</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>17</v>
+      </c>
+      <c r="J100" t="n">
+        <v>38</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3214440404.99915</v>
+        <v>3431540901.508833</v>
       </c>
       <c r="F101" t="n">
-        <v>0.188102259084537</v>
+        <v>0.151031421902791</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0371782120198337</v>
+        <v>0.03643762303374579</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>2</v>
+      </c>
+      <c r="J101" t="n">
+        <v>35</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
